--- a/sriramModel-nelson-atypical-patientID_26-sims-gr-5-iterations.xlsx
+++ b/sriramModel-nelson-atypical-patientID_26-sims-gr-5-iterations.xlsx
@@ -394,19 +394,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.039206904388487</v>
+        <v>2.023738119126912</v>
       </c>
       <c r="C2">
-        <v>2.00897562765285</v>
+        <v>2.019879835636557</v>
       </c>
       <c r="D2">
-        <v>2.019292486339919</v>
+        <v>2.003553565936535</v>
       </c>
       <c r="E2">
-        <v>2.025922278835262</v>
+        <v>2.032125140881999</v>
       </c>
       <c r="F2">
-        <v>2.037391559750082</v>
+        <v>2.003265163910014</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -414,19 +414,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.078185675892515</v>
+        <v>2.047380940556649</v>
       </c>
       <c r="C3">
-        <v>2.017878756083162</v>
+        <v>2.039773172889199</v>
       </c>
       <c r="D3">
-        <v>2.038596822783366</v>
+        <v>2.007153798746485</v>
       </c>
       <c r="E3">
-        <v>2.051787503976433</v>
+        <v>2.064200232742631</v>
       </c>
       <c r="F3">
-        <v>2.074560706049507</v>
+        <v>2.006578471811273</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -434,19 +434,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.116931643180521</v>
+        <v>2.070927373589281</v>
       </c>
       <c r="C4">
-        <v>2.026715543417067</v>
+        <v>2.059678979756403</v>
       </c>
       <c r="D4">
-        <v>2.057912920483121</v>
+        <v>2.010802467591761</v>
       </c>
       <c r="E4">
-        <v>2.077591237301309</v>
+        <v>2.096219293629749</v>
       </c>
       <c r="F4">
-        <v>2.111505417441832</v>
+        <v>2.009941313353342</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -454,19 +454,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.155441166748809</v>
+        <v>2.094376887930864</v>
       </c>
       <c r="C5">
-        <v>2.03549205804959</v>
+        <v>2.079596900335487</v>
       </c>
       <c r="D5">
-        <v>2.07724107189744</v>
+        <v>2.014501441213464</v>
       </c>
       <c r="E5">
-        <v>2.103329741998013</v>
+        <v>2.128177332428413</v>
       </c>
       <c r="F5">
-        <v>2.148224367593378</v>
+        <v>2.013355176876549</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -474,19 +474,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.193711506339568</v>
+        <v>2.117729495213219</v>
       </c>
       <c r="C6">
-        <v>2.044214249972447</v>
+        <v>2.099527230025849</v>
       </c>
       <c r="D6">
-        <v>2.096581929482597</v>
+        <v>2.01825270996092</v>
       </c>
       <c r="E6">
-        <v>2.128999904871661</v>
+        <v>2.160070299215585</v>
       </c>
       <c r="F6">
-        <v>2.18471685757277</v>
+        <v>2.016821654479781</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -494,19 +494,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.231740764604275</v>
+        <v>2.140985717432415</v>
       </c>
       <c r="C7">
-        <v>2.052887968401868</v>
+        <v>2.119470883709019</v>
       </c>
       <c r="D7">
-        <v>2.1159365258227</v>
+        <v>2.022058390590817</v>
       </c>
       <c r="E7">
-        <v>2.154599238569531</v>
+        <v>2.191895014839763</v>
       </c>
       <c r="F7">
-        <v>2.220982762883155</v>
+        <v>2.020342451091353</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -514,19 +514,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.269527917513728</v>
+        <v>2.164146561675982</v>
       </c>
       <c r="C8">
-        <v>2.061518982308316</v>
+        <v>2.139429366615164</v>
       </c>
       <c r="D8">
-        <v>2.135306259776317</v>
+        <v>2.025920731648896</v>
       </c>
       <c r="E8">
-        <v>2.180125841149481</v>
+        <v>2.223649124433256</v>
       </c>
       <c r="F8">
-        <v>2.2570225385432</v>
+        <v>2.023919384666665</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -534,19 +534,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.307072713764105</v>
+        <v>2.187213507436828</v>
       </c>
       <c r="C9">
-        <v>2.07011298146231</v>
+        <v>2.159404753033595</v>
       </c>
       <c r="D9">
-        <v>2.154692886596568</v>
+        <v>2.029842122230427</v>
       </c>
       <c r="E9">
-        <v>2.205578358280187</v>
+        <v>2.255331062461364</v>
       </c>
       <c r="F9">
-        <v>2.292837177756676</v>
+        <v>2.02755439176874</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -554,19 +554,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.344375625977718</v>
+        <v>2.210188492750416</v>
       </c>
       <c r="C10">
-        <v>2.078675559585947</v>
+        <v>2.179399664788646</v>
       </c>
       <c r="D10">
-        <v>2.174098520723966</v>
+        <v>2.033825102042345</v>
       </c>
       <c r="E10">
-        <v>2.230955963638776</v>
+        <v>2.286940009908803</v>
       </c>
       <c r="F10">
-        <v>2.328428174685727</v>
+        <v>2.03124953288054</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -574,19 +574,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.381437829047243</v>
+        <v>2.233073899043171</v>
       </c>
       <c r="C11">
-        <v>2.087212218387879</v>
+        <v>2.199417253778995</v>
       </c>
       <c r="D11">
-        <v>2.193525635232022</v>
+        <v>2.037872371723811</v>
       </c>
       <c r="E11">
-        <v>2.256258341895957</v>
+        <v>2.318475863516943</v>
       </c>
       <c r="F11">
-        <v>2.363797505773441</v>
+        <v>2.035006998807652</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -594,19 +594,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.418261175363928</v>
+        <v>2.255872542256836</v>
       </c>
       <c r="C12">
-        <v>2.095728374167289</v>
+        <v>2.219461186990686</v>
       </c>
       <c r="D12">
-        <v>2.212977061649546</v>
+        <v>2.04198680509267</v>
       </c>
       <c r="E12">
-        <v>2.281485667103482</v>
+        <v>2.349939205541212</v>
       </c>
       <c r="F12">
-        <v>2.398947619899446</v>
+        <v>2.038829117738902</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -614,19 +614,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.454848164981549</v>
+        <v>2.278587660183255</v>
       </c>
       <c r="C13">
-        <v>2.104229363429112</v>
+        <v>2.239535622381493</v>
       </c>
       <c r="D13">
-        <v>2.232455990768961</v>
+        <v>2.046171463868958</v>
       </c>
       <c r="E13">
-        <v>2.306638584751896</v>
+        <v>2.381331266595547</v>
       </c>
       <c r="F13">
-        <v>2.433881424891884</v>
+        <v>2.042718362717598</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -634,19 +634,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.491201919036519</v>
+        <v>2.301222910101884</v>
       </c>
       <c r="C14">
-        <v>2.112720446966827</v>
+        <v>2.259645200818559</v>
       </c>
       <c r="D14">
-        <v>2.251965974703513</v>
+        <v>2.050429603796466</v>
       </c>
       <c r="E14">
-        <v>2.33171819814924</v>
+        <v>2.412653895893131</v>
       </c>
       <c r="F14">
-        <v>2.468602274110896</v>
+        <v>2.04667735960097</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -654,19 +654,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.52732615875536</v>
+        <v>2.323782357481457</v>
       </c>
       <c r="C15">
-        <v>2.121206812297171</v>
+        <v>2.279795037264229</v>
       </c>
       <c r="D15">
-        <v>2.271510930086102</v>
+        <v>2.054764691422325</v>
       </c>
       <c r="E15">
-        <v>2.356726057456955</v>
+        <v>2.443909535613497</v>
       </c>
       <c r="F15">
-        <v>2.50311396003991</v>
+        <v>2.05070889707665</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -674,19 +674,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.563225189412172</v>
+        <v>2.346270467902105</v>
       </c>
       <c r="C16">
-        <v>2.129693576672873</v>
+        <v>2.299990708767182</v>
       </c>
       <c r="D16">
-        <v>2.29109514250909</v>
+        <v>2.059180428547333</v>
       </c>
       <c r="E16">
-        <v>2.381664150052637</v>
+        <v>2.475101197304822</v>
       </c>
       <c r="F16">
-        <v>2.537420712969964</v>
+        <v>2.054815935729123</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -694,19 +694,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.598903888347107</v>
+        <v>2.36869211122505</v>
       </c>
       <c r="C17">
-        <v>2.138185790894065</v>
+        <v>2.320238245821689</v>
       </c>
       <c r="D17">
-        <v>2.310723272618767</v>
+        <v>2.063680749232539</v>
       </c>
       <c r="E17">
-        <v>2.406534897405186</v>
+        <v>2.506232449100625</v>
       </c>
       <c r="F17">
-        <v>2.57152720387756</v>
+        <v>2.059001615967646</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -714,19 +714,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.63436769440675</v>
+        <v>2.391052554998016</v>
       </c>
       <c r="C18">
-        <v>2.146688443737122</v>
+        <v>2.340544127564411</v>
       </c>
       <c r="D18">
-        <v>2.33040036380955</v>
+        <v>2.068269881796926</v>
       </c>
       <c r="E18">
-        <v>2.431341149164014</v>
+        <v>2.537307399423341</v>
       </c>
       <c r="F18">
-        <v>2.60543855133707</v>
+        <v>2.063269275963995</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -734,19 +734,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.669622600974181</v>
+        <v>2.413357474550545</v>
       </c>
       <c r="C19">
-        <v>2.155206464370492</v>
+        <v>2.360915278074578</v>
       </c>
       <c r="D19">
-        <v>2.350131848646431</v>
+        <v>2.072952330789919</v>
       </c>
       <c r="E19">
-        <v>2.456086182436465</v>
+        <v>2.568330679467618</v>
       </c>
       <c r="F19">
-        <v>2.639160332966969</v>
+        <v>2.06762246318467</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -754,19 +754,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.704675151887615</v>
+        <v>2.435612954740372</v>
       </c>
       <c r="C20">
-        <v>2.163744730233685</v>
+        <v>2.3813590639485</v>
       </c>
       <c r="D20">
-        <v>2.369923557136167</v>
+        <v>2.077732937426227</v>
       </c>
       <c r="E20">
-        <v>2.480773705133591</v>
+        <v>2.59930743299385</v>
       </c>
       <c r="F20">
-        <v>2.672698601957142</v>
+        <v>2.072064949305592</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -774,19 +774,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.739532441593973</v>
+        <v>2.457825495071039</v>
       </c>
       <c r="C21">
-        <v>2.172308069761362</v>
+        <v>2.40188329393337</v>
       </c>
       <c r="D21">
-        <v>2.389781733073137</v>
+        <v>2.082616887023732</v>
       </c>
       <c r="E21">
-        <v>2.505407858307543</v>
+        <v>2.630243314293307</v>
       </c>
       <c r="F21">
-        <v>2.706059909115282</v>
+        <v>2.076600747356601</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -794,19 +794,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.774202118582747</v>
+        <v>2.480002020447252</v>
       </c>
       <c r="C22">
-        <v>2.180901271220134</v>
+        <v>2.422496220232315</v>
       </c>
       <c r="D22">
-        <v>2.409713043848818</v>
+        <v>2.08760974841437</v>
       </c>
       <c r="E22">
-        <v>2.52999322947227</v>
+        <v>2.661144465242381</v>
       </c>
       <c r="F22">
-        <v>2.739251330819546</v>
+        <v>2.081234128583476</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -814,19 +814,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.808692388124354</v>
+        <v>2.502149893647759</v>
       </c>
       <c r="C23">
-        <v>2.189529089794857</v>
+        <v>2.443206542782963</v>
       </c>
       <c r="D23">
-        <v>2.429724596732783</v>
+        <v>2.09271751394654</v>
       </c>
       <c r="E23">
-        <v>2.554534864719693</v>
+        <v>2.692017548201607</v>
       </c>
       <c r="F23">
-        <v>2.772280503300816</v>
+        <v>2.085969643058823</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -834,19 +834,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.843012024676813</v>
+        <v>2.524276927851826</v>
       </c>
       <c r="C24">
-        <v>2.19819625270826</v>
+        <v>2.464023414981704</v>
       </c>
       <c r="D24">
-        <v>2.449823958104041</v>
+        <v>2.097946624004996</v>
       </c>
       <c r="E24">
-        <v>2.57903828347519</v>
+        <v>2.722869695752279</v>
       </c>
       <c r="F24">
-        <v>2.805155663761054</v>
+        <v>2.090812141579113</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -854,19 +854,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.877170379667456</v>
+        <v>2.546391406932587</v>
       </c>
       <c r="C25">
-        <v>2.206907470560257</v>
+        <v>2.484956451248249</v>
       </c>
       <c r="D25">
-        <v>2.470019169725168</v>
+        <v>2.103304043727578</v>
       </c>
       <c r="E25">
-        <v>2.603509500450811</v>
+        <v>2.753708554754513</v>
       </c>
       <c r="F25">
-        <v>2.837885698926812</v>
+        <v>2.095766800730762</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -874,19 +874,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>2.911177398804111</v>
+        <v>2.568502109050827</v>
       </c>
       <c r="C26">
-        <v>2.21566744082571</v>
+        <v>2.506015736812076</v>
       </c>
       <c r="D26">
-        <v>2.490318769155811</v>
+        <v>2.108797281108334</v>
       </c>
       <c r="E26">
-        <v>2.627955050116194</v>
+        <v>2.784542302415411</v>
       </c>
       <c r="F26">
-        <v>2.870480202953903</v>
+        <v>2.100839151533199</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -894,19 +894,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>2.945043648926748</v>
+        <v>2.590618330839151</v>
       </c>
       <c r="C27">
-        <v>2.224480861000364</v>
+        <v>2.527211839742121</v>
       </c>
       <c r="D27">
-        <v>2.510731815539975</v>
+        <v>2.114434483231856</v>
       </c>
       <c r="E27">
-        <v>2.65238201783853</v>
+        <v>2.815379655364222</v>
       </c>
       <c r="F27">
-        <v>2.902949539438726</v>
+        <v>2.106035109384885</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -914,19 +914,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>2.978780323452605</v>
+        <v>2.612749916978807</v>
       </c>
       <c r="C28">
-        <v>2.23335243326832</v>
+        <v>2.548555825365285</v>
       </c>
       <c r="D28">
-        <v>2.531267916663946</v>
+        <v>2.120224478604287</v>
       </c>
       <c r="E28">
-        <v>2.676798071318483</v>
+        <v>2.846229886312178</v>
       </c>
       <c r="F28">
-        <v>2.935304920095443</v>
+        <v>2.111361007323528</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -934,19 +934,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>3.012399290718144</v>
+        <v>2.634907298975888</v>
       </c>
       <c r="C29">
-        <v>2.242286882083936</v>
+        <v>2.570059272853659</v>
       </c>
       <c r="D29">
-        <v>2.551937255845711</v>
+        <v>2.12617686271358</v>
       </c>
       <c r="E29">
-        <v>2.701211506579766</v>
+        <v>2.877102844231489</v>
       </c>
       <c r="F29">
-        <v>2.967558489938951</v>
+        <v>2.1168236339395</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -954,19 +954,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>3.045913105594815</v>
+        <v>2.657101535121627</v>
       </c>
       <c r="C30">
-        <v>2.251288956864793</v>
+        <v>2.591734294575204</v>
       </c>
       <c r="D30">
-        <v>2.572750627374383</v>
+        <v>2.132302109708837</v>
       </c>
       <c r="E30">
-        <v>2.725631295132287</v>
+        <v>2.908008992084386</v>
       </c>
       <c r="F30">
-        <v>2.999723425226825</v>
+        <v>2.122430276680016</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -974,19 +974,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>3.079335052586779</v>
+        <v>2.679344351077666</v>
       </c>
       <c r="C31">
-        <v>2.2603634555899</v>
+        <v>2.613593558066148</v>
       </c>
       <c r="D31">
-        <v>2.593719472539243</v>
+        <v>2.138611616965846</v>
       </c>
       <c r="E31">
-        <v>2.750067139859421</v>
+        <v>2.938959430000662</v>
       </c>
       <c r="F31">
-        <v>3.031814044633851</v>
+        <v>2.128188769101364</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -994,19 +994,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>3.112679187886253</v>
+        <v>2.701648201618011</v>
       </c>
       <c r="C32">
-        <v>2.269515227397868</v>
+        <v>2.635650310555165</v>
       </c>
       <c r="D32">
-        <v>2.614855917778747</v>
+        <v>2.145117903648905</v>
       </c>
       <c r="E32">
-        <v>2.774529534497209</v>
+        <v>2.969965953237328</v>
       </c>
       <c r="F32">
-        <v>3.063845935049425</v>
+        <v>2.134107542062876</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1014,19 +1014,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>3.145960364812478</v>
+        <v>2.724026329978417</v>
       </c>
       <c r="C33">
-        <v>2.278749198804638</v>
+        <v>2.657918406489914</v>
       </c>
       <c r="D33">
-        <v>2.63617281775933</v>
+        <v>2.151834661026085</v>
       </c>
       <c r="E33">
-        <v>2.799029843918453</v>
+        <v>3.001041105900369</v>
       </c>
       <c r="F33">
-        <v>3.095836093643121</v>
+        <v>2.140195684138482</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1034,19 +1034,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>3.179194306521115</v>
+        <v>2.74649283035973</v>
       </c>
       <c r="C34">
-        <v>2.288070380163201</v>
+        <v>2.680412338118201</v>
       </c>
       <c r="D34">
-        <v>2.657683806497624</v>
+        <v>2.158776983518558</v>
       </c>
       <c r="E34">
-        <v>2.823580386248511</v>
+        <v>3.032198223407062</v>
       </c>
       <c r="F34">
-        <v>3.127803088057789</v>
+        <v>2.146463009330419</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1054,19 +1054,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>3.21239763664863</v>
+        <v>2.769062735141833</v>
       </c>
       <c r="C35">
-        <v>2.29748389185858</v>
+        <v>2.703147269325385</v>
       </c>
       <c r="D35">
-        <v>2.67940334965798</v>
+        <v>2.165961510520046</v>
       </c>
       <c r="E35">
-        <v>2.848194525666217</v>
+        <v>3.063451521465065</v>
       </c>
       <c r="F35">
-        <v>3.15976723682376</v>
+        <v>2.152920132238755</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1074,19 +1074,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>3.245587950859922</v>
+        <v>2.791752105781481</v>
       </c>
       <c r="C36">
-        <v>2.306994977865434</v>
+        <v>2.726139072829731</v>
       </c>
       <c r="D36">
-        <v>2.701346797156111</v>
+        <v>2.173406621852495</v>
       </c>
       <c r="E36">
-        <v>2.872886783400975</v>
+        <v>3.094816165673126</v>
       </c>
       <c r="F36">
-        <v>3.191750812338199</v>
+        <v>2.159578549489922</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1094,19 +1094,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>3.278783885398356</v>
+        <v>2.814578128407657</v>
       </c>
       <c r="C37">
-        <v>2.316609030524293</v>
+        <v>2.749404370620395</v>
       </c>
       <c r="D37">
-        <v>2.723530454341362</v>
+        <v>2.181132789292236</v>
       </c>
       <c r="E37">
-        <v>2.897672968018207</v>
+        <v>3.126308342723949</v>
       </c>
       <c r="F37">
-        <v>3.223778269012226</v>
+        <v>2.16645073783188</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1114,19 +1114,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>3.312005164073837</v>
+        <v>2.837559233662157</v>
       </c>
       <c r="C38">
-        <v>2.326331614616816</v>
+        <v>2.772960578965137</v>
       </c>
       <c r="D38">
-        <v>2.745971649188959</v>
+        <v>2.189162650897845</v>
       </c>
       <c r="E38">
-        <v>2.92257031996786</v>
+        <v>3.157945384680781</v>
       </c>
       <c r="F38">
-        <v>3.255876499440884</v>
+        <v>2.173550263816838</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1134,19 +1134,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>3.345272709605212</v>
+        <v>2.86071523718889</v>
       </c>
       <c r="C39">
-        <v>2.336168487993412</v>
+        <v>2.796825956654825</v>
       </c>
       <c r="D39">
-        <v>2.768688802735044</v>
+        <v>2.197521597980073</v>
       </c>
       <c r="E39">
-        <v>2.947597665254927</v>
+        <v>3.189745864544526</v>
       </c>
       <c r="F39">
-        <v>3.288075121673339</v>
+        <v>2.180891907261272</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1154,19 +1154,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>3.378608696192836</v>
+        <v>2.884067487771432</v>
       </c>
       <c r="C40">
-        <v>2.346125642244913</v>
+        <v>2.82101965758569</v>
       </c>
       <c r="D40">
-        <v>2.791701518273724</v>
+        <v>2.206238078667375</v>
       </c>
       <c r="E40">
-        <v>2.972775616935526</v>
+        <v>3.221729711707232</v>
       </c>
       <c r="F40">
-        <v>3.320406800814433</v>
+        <v>2.188491795275259</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1174,19 +1174,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>3.412036660398954</v>
+        <v>2.907639027608834</v>
       </c>
       <c r="C41">
-        <v>2.356209314142702</v>
+        <v>2.845561787638689</v>
       </c>
       <c r="D41">
-        <v>2.815030671046072</v>
+        <v>2.215344091976492</v>
       </c>
       <c r="E41">
-        <v>2.998126791328089</v>
+        <v>3.253918373790451</v>
       </c>
       <c r="F41">
-        <v>3.352907610688708</v>
+        <v>2.196367566753001</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1194,19 +1194,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>3.445581604232091</v>
+        <v>2.931454814605527</v>
       </c>
       <c r="C42">
-        <v>2.366426048736896</v>
+        <v>2.870473466012964</v>
       </c>
       <c r="D42">
-        <v>2.838698500938211</v>
+        <v>2.224875737730399</v>
       </c>
       <c r="E42">
-        <v>3.023676063113015</v>
+        <v>3.286334940699872</v>
       </c>
       <c r="F42">
-        <v>3.385617432158553</v>
+        <v>2.204538552558954</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1214,19 +1214,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>3.479270072444935</v>
+        <v>2.955541945978377</v>
       </c>
       <c r="C43">
-        <v>2.376782701670352</v>
+        <v>2.895776891350635</v>
       </c>
       <c r="D43">
-        <v>2.862728720901567</v>
+        <v>2.234873913119754</v>
       </c>
       <c r="E43">
-        <v>3.049450826817532</v>
+        <v>3.319004316787612</v>
       </c>
       <c r="F43">
-        <v>3.418580385385314</v>
+        <v>2.213025986931014</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1234,19 +1234,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>3.51313031395914</v>
+        <v>2.979929887590239</v>
       </c>
       <c r="C44">
-        <v>2.387286523525887</v>
+        <v>2.921495411611644</v>
       </c>
       <c r="D44">
-        <v>2.887146634835804</v>
+        <v>2.245385148322082</v>
       </c>
       <c r="E44">
-        <v>3.075481364761987</v>
+        <v>3.351953412426562</v>
       </c>
       <c r="F44">
-        <v>3.45184533315077</v>
+        <v>2.221853231557416</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1254,19 +1254,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>3.547192362067676</v>
+        <v>3.004650811329851</v>
       </c>
       <c r="C45">
-        <v>2.397945161019174</v>
+        <v>2.94765360016692</v>
       </c>
       <c r="D45">
-        <v>2.911979257540086</v>
+        <v>2.256462616342144</v>
       </c>
       <c r="E45">
-        <v>3.10180122301907</v>
+        <v>3.385211304196841</v>
       </c>
       <c r="F45">
-        <v>3.485466406448342</v>
+        <v>2.231046060354821</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1274,19 +1274,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>3.581488196315433</v>
+        <v>3.029739933591822</v>
       </c>
       <c r="C46">
-        <v>2.408766757960081</v>
+        <v>2.974277335508611</v>
       </c>
       <c r="D46">
-        <v>2.937255440374609</v>
+        <v>2.268167291721176</v>
       </c>
       <c r="E46">
-        <v>3.128447646642221</v>
+        <v>3.418809458245698</v>
       </c>
       <c r="F46">
-        <v>3.519503576467713</v>
+        <v>2.240632971463049</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1294,19 +1294,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>3.616051877449075</v>
+        <v>3.055235870672373</v>
       </c>
       <c r="C47">
-        <v>2.419759962203773</v>
+        <v>3.001393885681053</v>
       </c>
       <c r="D47">
-        <v>2.963006023001573</v>
+        <v>2.280569374580731</v>
       </c>
       <c r="E47">
-        <v>3.155462088643388</v>
+        <v>3.452781936718165</v>
       </c>
       <c r="F47">
-        <v>3.554023175295171</v>
+        <v>2.250645549163873</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1314,19 +1314,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>3.650919669493387</v>
+        <v>3.081181122465142</v>
       </c>
       <c r="C48">
-        <v>2.430934042588007</v>
+        <v>3.029031996981439</v>
       </c>
       <c r="D48">
-        <v>2.989263976599325</v>
+        <v>2.293750147053125</v>
       </c>
       <c r="E48">
-        <v>3.182890841999074</v>
+        <v>3.48716558633061</v>
       </c>
       <c r="F48">
-        <v>3.589098709212992</v>
+        <v>2.26111885092604</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1334,19 +1334,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>3.686130231941438</v>
+        <v>3.107622602996126</v>
       </c>
       <c r="C49">
-        <v>2.442298908944069</v>
+        <v>3.05722198643291</v>
       </c>
       <c r="D49">
-        <v>3.016064547576974</v>
+        <v>2.307804067920268</v>
       </c>
       <c r="E49">
-        <v>3.210785735356565</v>
+        <v>3.522000272271848</v>
       </c>
       <c r="F49">
-        <v>3.62481139164621</v>
+        <v>2.272091904197173</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1354,19 +1354,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>3.721724728707102</v>
+        <v>3.134612198155404</v>
       </c>
       <c r="C50">
-        <v>2.453865242097742</v>
+        <v>3.085995837423178</v>
       </c>
       <c r="D50">
-        <v>3.043445439228227</v>
+        <v>2.322841241592385</v>
       </c>
       <c r="E50">
-        <v>3.239204888426698</v>
+        <v>3.557329041191185</v>
       </c>
       <c r="F50">
-        <v>3.661250600759854</v>
+        <v>2.283608244909633</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1374,19 +1374,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>3.757747023660798</v>
+        <v>3.162207437442984</v>
       </c>
       <c r="C51">
-        <v>2.465644512585672</v>
+        <v>3.11538729707801</v>
       </c>
       <c r="D51">
-        <v>3.071446965172797</v>
+        <v>2.338990426434204</v>
       </c>
       <c r="E51">
-        <v>3.268213698496729</v>
+        <v>3.593198308162452</v>
       </c>
       <c r="F51">
-        <v>3.698514369976067</v>
+        <v>2.295716542584418</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1394,19 +1394,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>3.794243810251553</v>
+        <v>3.190472325536514</v>
       </c>
       <c r="C52">
-        <v>2.477649188476825</v>
+        <v>3.145431975144239</v>
       </c>
       <c r="D52">
-        <v>3.100112211554288</v>
+        <v>2.356402597043802</v>
       </c>
       <c r="E52">
-        <v>3.297885925193364</v>
+        <v>3.629657959536898</v>
       </c>
       <c r="F52">
-        <v>3.736709619848269</v>
+        <v>2.308471259655972</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1414,19 +1414,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>3.831264938777214</v>
+        <v>3.219478211665848</v>
       </c>
       <c r="C53">
-        <v>2.48989283221781</v>
+        <v>3.176167441503191</v>
       </c>
       <c r="D53">
-        <v>3.129487279498807</v>
+        <v>2.375254963289662</v>
       </c>
       <c r="E53">
-        <v>3.328305033486789</v>
+        <v>3.666761406788636</v>
       </c>
       <c r="F53">
-        <v>3.775952313495663</v>
+        <v>2.321933496574272</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1434,19 +1434,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>3.868864783918034</v>
+        <v>3.249304664047396</v>
       </c>
       <c r="C54">
-        <v>2.502390517234633</v>
+        <v>3.207633320333135</v>
       </c>
       <c r="D54">
-        <v>3.159622159414015</v>
+        <v>2.395755313627685</v>
       </c>
       <c r="E54">
-        <v>3.359567628044417</v>
+        <v>3.704565501217638</v>
       </c>
       <c r="F54">
-        <v>3.816369368395768</v>
+        <v>2.336171870273366</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1454,19 +1454,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>3.907103948723013</v>
+        <v>3.280040750716438</v>
       </c>
       <c r="C55">
-        <v>2.515159467841535</v>
+        <v>3.239871378427379</v>
       </c>
       <c r="D55">
-        <v>3.190571646596494</v>
+        <v>2.41814630688062</v>
       </c>
       <c r="E55">
-        <v>3.391786715775116</v>
+        <v>3.743130330411391</v>
       </c>
       <c r="F55">
-        <v>3.858099871828406</v>
+        <v>2.351263500232803</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1474,19 +1474,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>3.94604900352903</v>
+        <v>3.311786196037334</v>
       </c>
       <c r="C56">
-        <v>2.528219072827635</v>
+        <v>3.272925603462378</v>
       </c>
       <c r="D56">
-        <v>3.22239538678884</v>
+        <v>2.442708976937724</v>
       </c>
       <c r="E56">
-        <v>3.425093518882366</v>
+        <v>3.782518868935171</v>
       </c>
       <c r="F56">
-        <v>3.901292763757568</v>
+        <v>2.3672950109624</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1494,19 +1494,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>3.985772249116495</v>
+        <v>3.344652573252089</v>
       </c>
       <c r="C57">
-        <v>2.541591030329986</v>
+        <v>3.306842267582821</v>
       </c>
       <c r="D57">
-        <v>3.255157841686087</v>
+        <v>2.46976391960678</v>
       </c>
       <c r="E57">
-        <v>3.459639307748786</v>
+        <v>3.822796371973419</v>
       </c>
       <c r="F57">
-        <v>3.946103084786585</v>
+        <v>2.384363716631446</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1514,19 +1514,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>4.026351393813736</v>
+        <v>3.378764829022703</v>
       </c>
       <c r="C58">
-        <v>2.555299544961463</v>
+        <v>3.341669971192221</v>
       </c>
       <c r="D58">
-        <v>3.288928192466395</v>
+        <v>2.499667248861504</v>
       </c>
       <c r="E58">
-        <v>3.49559735514659</v>
+        <v>3.864029487732464</v>
       </c>
       <c r="F58">
-        <v>3.992686750020336</v>
+        <v>2.402578680397192</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1534,19 +1534,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>4.067869139990527</v>
+        <v>3.414262522135798</v>
       </c>
       <c r="C59">
-        <v>2.569371464097526</v>
+        <v>3.377459661747257</v>
       </c>
       <c r="D59">
-        <v>3.323780162597916</v>
+        <v>2.532799077587747</v>
       </c>
       <c r="E59">
-        <v>3.533164831228631</v>
+        <v>3.906285056242504</v>
       </c>
       <c r="F59">
-        <v>4.041193718284782</v>
+        <v>2.422061644037419</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1554,19 +1554,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>4.110412607548689</v>
+        <v>3.451301064175636</v>
       </c>
       <c r="C60">
-        <v>2.583836507159759</v>
+        <v>3.414264613315069</v>
       </c>
       <c r="D60">
-        <v>3.359791719895679</v>
+        <v>2.569538289291449</v>
       </c>
       <c r="E60">
-        <v>3.572564437238152</v>
+        <v>3.949628569201705</v>
       </c>
       <c r="F60">
-        <v>4.091759639546924</v>
+        <v>2.442947934409642</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1574,19 +1574,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>4.154072599008265</v>
+        <v>3.490052488205768</v>
       </c>
       <c r="C61">
-        <v>2.59872753944154</v>
+        <v>3.452140364679817</v>
       </c>
       <c r="D61">
-        <v>3.397044625868677</v>
+        <v>2.610222104813671</v>
       </c>
       <c r="E61">
-        <v>3.614045099723095</v>
+        <v>3.994122285021962</v>
       </c>
       <c r="F61">
-        <v>4.144496454270917</v>
+        <v>2.465386399019765</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1594,19 +1594,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>4.198942642305502</v>
+        <v>3.53070557516752</v>
       </c>
       <c r="C62">
-        <v>2.614080886980684</v>
+        <v>3.491144601285105</v>
       </c>
       <c r="D62">
-        <v>3.435623824587002</v>
+        <v>2.655091429084555</v>
       </c>
       <c r="E62">
-        <v>3.657881167293682</v>
+        <v>4.039823071468939</v>
       </c>
       <c r="F62">
-        <v>4.199483079933358</v>
+        <v>2.489538805298672</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1614,19 +1614,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>4.245117742936428</v>
+        <v>3.573465112947265</v>
       </c>
       <c r="C63">
-        <v>2.629936702108087</v>
+        <v>3.531336969545349</v>
       </c>
       <c r="D63">
-        <v>3.475616590661077</v>
+        <v>2.70423193493655</v>
       </c>
       <c r="E63">
-        <v>3.704368965167661</v>
+        <v>4.086780010596417</v>
       </c>
       <c r="F63">
-        <v>4.25675680640847</v>
+        <v>2.515577902795589</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1634,19 +1634,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>4.29269281903979</v>
+        <v>3.618548947047403</v>
       </c>
       <c r="C64">
-        <v>2.646339380750946</v>
+        <v>3.572778810329657</v>
       </c>
       <c r="D64">
-        <v>3.517111426395693</v>
+        <v>2.757531921553263</v>
       </c>
       <c r="E64">
-        <v>3.753819294318906</v>
+        <v>4.135031944635315</v>
       </c>
       <c r="F64">
-        <v>4.316308243703359</v>
+        <v>2.543683714280759</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1654,19 +1654,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>4.341760766712029</v>
+        <v>3.666183255197096</v>
       </c>
       <c r="C65">
-        <v>2.663338020003998</v>
+        <v>3.615532818522657</v>
       </c>
       <c r="D65">
-        <v>3.560196664534601</v>
+        <v>2.814678209401392</v>
       </c>
       <c r="E65">
-        <v>3.806544399918402</v>
+        <v>4.184605213795451</v>
       </c>
       <c r="F65">
-        <v>4.378079965440111</v>
+        <v>2.574036803109823</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1674,19 +1674,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>4.392410142724838</v>
+        <v>3.716594597163309</v>
       </c>
       <c r="C66">
-        <v>2.680986901733611</v>
+        <v>3.65966252151804</v>
       </c>
       <c r="D66">
-        <v>3.604958754181231</v>
+        <v>2.875198451635429</v>
       </c>
       <c r="E66">
-        <v>3.86283817793867</v>
+        <v>4.235511791630066</v>
       </c>
       <c r="F66">
-        <v>4.441970050048414</v>
+        <v>2.606809334745369</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1694,19 +1694,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>4.444722470671888</v>
+        <v>3.769998377262065</v>
       </c>
       <c r="C67">
-        <v>2.699346103499173</v>
+        <v>3.705231713407392</v>
       </c>
       <c r="D67">
-        <v>3.651480228054646</v>
+        <v>2.938535543004448</v>
       </c>
       <c r="E67">
-        <v>3.922949628455155</v>
+        <v>4.287748025631813</v>
       </c>
       <c r="F67">
-        <v>4.507839934064362</v>
+        <v>2.642152921759487</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1714,19 +1714,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>4.498769216962785</v>
+        <v>3.826583527577726</v>
       </c>
       <c r="C68">
-        <v>2.718482141893987</v>
+        <v>3.752303746098904</v>
       </c>
       <c r="D68">
-        <v>3.699837373050638</v>
+        <v>3.00412602064949</v>
       </c>
       <c r="E68">
-        <v>3.987051932458046</v>
+        <v>4.341294235995239</v>
       </c>
       <c r="F68">
-        <v>4.575525160316686</v>
+        <v>2.680184047752685</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1734,19 +1734,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>4.554608557469837</v>
+        <v>3.886494523377082</v>
       </c>
       <c r="C69">
-        <v>2.738468591026646</v>
+        <v>3.800940655089424</v>
       </c>
       <c r="D69">
-        <v>3.75009766521866</v>
+        <v>3.071458583983592</v>
       </c>
       <c r="E69">
-        <v>4.055212567117775</v>
+        <v>4.396115582916291</v>
       </c>
       <c r="F69">
-        <v>4.644847115793896</v>
+        <v>2.720969143975043</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1754,19 +1754,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>4.612282092707837</v>
+        <v>3.949812825190392</v>
       </c>
       <c r="C70">
-        <v>2.759386664023899</v>
+        <v>3.851202145352759</v>
       </c>
       <c r="D70">
-        <v>3.802317072198782</v>
+        <v>3.140104274790841</v>
       </c>
       <c r="E70">
-        <v>4.127372400373027</v>
+        <v>4.452163300981964</v>
       </c>
       <c r="F70">
-        <v>4.715623856209139</v>
+        <v>2.764511813580755</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1774,19 +1774,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>4.671811748490616</v>
+        <v>4.016540778726131</v>
       </c>
       <c r="C71">
-        <v>2.781325731979813</v>
+        <v>3.903144463091238</v>
       </c>
       <c r="D71">
-        <v>3.856537372063753</v>
+        <v>3.209722822070211</v>
       </c>
       <c r="E71">
-        <v>4.203341451485842</v>
+        <v>4.509376902016281</v>
       </c>
       <c r="F71">
-        <v>4.787678725995624</v>
+        <v>2.810745558674607</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1794,19 +1794,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>4.733197135365971</v>
+        <v>4.086592159668899</v>
       </c>
       <c r="C72">
-        <v>2.804383699449053</v>
+        <v>3.956819144288592</v>
       </c>
       <c r="D72">
-        <v>3.912783676866631</v>
+        <v>3.280054598974398</v>
       </c>
       <c r="E72">
-        <v>4.282814908639599</v>
+        <v>4.567686965733577</v>
       </c>
       <c r="F72">
-        <v>4.860846202910464</v>
+        <v>2.859534313889641</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1814,19 +1814,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>4.796413650408766</v>
+        <v>4.159793250472945</v>
       </c>
       <c r="C73">
-        <v>2.828667096834486</v>
+        <v>4.012271682600152</v>
       </c>
       <c r="D73">
-        <v>3.971062373849552</v>
+        <v>3.350906583262033</v>
       </c>
       <c r="E73">
-        <v>4.365406180057246</v>
+        <v>4.627018136905432</v>
       </c>
       <c r="F73">
-        <v>4.934975064287061</v>
+        <v>2.910682033690911</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1834,19 +1834,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>4.861411597079743</v>
+        <v>4.235893683522784</v>
       </c>
       <c r="C74">
-        <v>2.854290705936838</v>
+        <v>4.069540154219577</v>
       </c>
       <c r="D74">
-        <v>4.031359697580259</v>
+        <v>3.422137605652005</v>
       </c>
       <c r="E74">
-        <v>4.450688049266056</v>
+        <v>4.687291915392175</v>
       </c>
       <c r="F74">
-        <v>5.009929391851378</v>
+        <v>2.963948965851384</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1854,19 +1854,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>4.928116480253409</v>
+        <v>4.314586511542574</v>
       </c>
       <c r="C75">
-        <v>2.881376597116682</v>
+        <v>4.128653857684353</v>
       </c>
       <c r="D75">
-        <v>4.093641113825553</v>
+        <v>3.493645388348982</v>
       </c>
       <c r="E75">
-        <v>4.538231658769002</v>
+        <v>4.748429148759719</v>
       </c>
       <c r="F75">
-        <v>5.085588080614546</v>
+        <v>3.019071971515235</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1874,19 +1874,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>4.996430547123709</v>
+        <v>4.395533130911894</v>
       </c>
       <c r="C76">
-        <v>2.910051850927025</v>
+        <v>4.189632047198416</v>
       </c>
       <c r="D76">
-        <v>4.157851632267276</v>
+        <v>3.565356154989877</v>
       </c>
       <c r="E76">
-        <v>4.627635830147285</v>
+        <v>4.810352092713424</v>
       </c>
       <c r="F76">
-        <v>5.161843476426778</v>
+        <v>3.0757837814653</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1894,19 +1894,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>5.066235540062243</v>
+        <v>4.478387551979455</v>
       </c>
       <c r="C77">
-        <v>2.940445379880976</v>
+        <v>4.252482820926076</v>
       </c>
       <c r="D77">
-        <v>4.223917075853388</v>
+        <v>3.637216723281955</v>
       </c>
       <c r="E77">
-        <v>4.71854462749012</v>
+        <v>4.872985928424637</v>
       </c>
       <c r="F77">
-        <v>5.238599642100676</v>
+        <v>3.133829003468487</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1914,19 +1914,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>5.137396340879219</v>
+        <v>4.56281658542887</v>
       </c>
       <c r="C78">
-        <v>2.972683131050486</v>
+        <v>4.317202245622205</v>
       </c>
       <c r="D78">
-        <v>4.291746231809279</v>
+        <v>3.709188671298592</v>
       </c>
       <c r="E78">
-        <v>4.8106539589466</v>
+        <v>4.936259748302285</v>
       </c>
       <c r="F78">
-        <v>5.315770582154629</v>
+        <v>3.192975015252676</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1934,19 +1934,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>5.209765271339857</v>
+        <v>4.648513803980769</v>
       </c>
       <c r="C79">
-        <v>3.006881435718209</v>
+        <v>4.38377379217293</v>
       </c>
       <c r="D79">
-        <v>4.361233715770076</v>
+        <v>3.781244113127533</v>
       </c>
       <c r="E79">
-        <v>4.903710705803316</v>
+        <v>5.000107120644733</v>
       </c>
       <c r="F79">
-        <v>5.393278619930685</v>
+        <v>3.253017670563689</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1954,19 +1954,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>5.28318666657764</v>
+        <v>4.735207134731416</v>
       </c>
       <c r="C80">
-        <v>3.043138774528248</v>
+        <v>4.452168139509263</v>
       </c>
       <c r="D80">
-        <v>4.432263313549959</v>
+        <v>3.853362673112186</v>
       </c>
       <c r="E80">
-        <v>4.997507528438307</v>
+        <v>5.064466253126105</v>
       </c>
       <c r="F80">
-        <v>5.471053013687113</v>
+        <v>3.313782942288312</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1974,19 +1974,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>5.357501337699336</v>
+        <v>4.82266133303582</v>
       </c>
       <c r="C81">
-        <v>3.081526380258066</v>
+        <v>4.522343384812799</v>
       </c>
       <c r="D81">
-        <v>4.504711527918242</v>
+        <v>3.925529333327907</v>
       </c>
       <c r="E81">
-        <v>5.091875937139456</v>
+        <v>5.129279982369075</v>
       </c>
       <c r="F81">
-        <v>5.549028829567086</v>
+        <v>3.375125693664153</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -1994,19 +1994,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>5.432550644790717</v>
+        <v>4.910676849648895</v>
       </c>
       <c r="C82">
-        <v>3.122078758285361</v>
+        <v>4.594245663197611</v>
       </c>
       <c r="D82">
-        <v>4.578451069040084</v>
+        <v>3.997732905979192</v>
       </c>
       <c r="E82">
-        <v>5.1866792026863</v>
+        <v>5.194495565748244</v>
       </c>
       <c r="F82">
-        <v>5.627146052300704</v>
+        <v>3.436926852008356</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2014,19 +2014,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>5.508179960522237</v>
+        <v>4.999086611271487</v>
       </c>
       <c r="C83">
-        <v>3.164785547605825</v>
+        <v>4.667810163261486</v>
       </c>
       <c r="D83">
-        <v>4.653354065964526</v>
+        <v>4.069964951427107</v>
       </c>
       <c r="E83">
-        <v>5.281805948135578</v>
+        <v>5.260064350467563</v>
       </c>
       <c r="F83">
-        <v>5.705348898050472</v>
+        <v>3.499089876962387</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2034,19 +2034,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>5.584241417644541</v>
+        <v>5.087751872684049</v>
       </c>
       <c r="C84">
-        <v>3.209586487531953</v>
+        <v>4.74296247973839</v>
       </c>
       <c r="D84">
-        <v>4.729294839627985</v>
+        <v>4.142219011513291</v>
       </c>
       <c r="E84">
-        <v>5.377164740154221</v>
+        <v>5.325941440188342</v>
       </c>
       <c r="F84">
-        <v>5.783585288634082</v>
+        <v>3.561537140543922</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2054,19 +2054,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>5.660595917068713</v>
+        <v>5.176557900702957</v>
       </c>
       <c r="C85">
-        <v>3.256370880402286</v>
+        <v>4.81962022333341</v>
       </c>
       <c r="D85">
-        <v>4.806152146579349</v>
+        <v>4.214490065518762</v>
       </c>
       <c r="E85">
-        <v>5.472679719316205</v>
+        <v>5.392085347532669</v>
       </c>
       <c r="F85">
-        <v>5.861806449837264</v>
+        <v>3.624206560149995</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2074,19 +2074,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>5.737114456895402</v>
+        <v>5.265409931602467</v>
       </c>
       <c r="C86">
-        <v>3.304982750174641</v>
+        <v>4.89769479893511</v>
       </c>
       <c r="D86">
-        <v>4.883810866055426</v>
+        <v>4.286774143154837</v>
       </c>
       <c r="E86">
-        <v>5.568287142066039</v>
+        <v>5.458457661008011</v>
       </c>
       <c r="F86">
-        <v>5.939966575030364</v>
+        <v>3.687048645561005</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2094,19 +2094,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>5.813678831159616</v>
+        <v>5.35422960873468</v>
       </c>
       <c r="C87">
-        <v>3.35523057942937</v>
+        <v>4.977093244202764</v>
       </c>
       <c r="D87">
-        <v>4.962163153511779</v>
+        <v>4.359068048092247</v>
       </c>
       <c r="E87">
-        <v>5.66393282443741</v>
+        <v>5.525022749482269</v>
       </c>
       <c r="F87">
-        <v>6.018022695050726</v>
+        <v>3.750024005083099</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2114,19 +2114,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>5.890181806665221</v>
+        <v>5.442951955999159</v>
       </c>
       <c r="C88">
-        <v>3.406899060041914</v>
+        <v>5.057720035088086</v>
       </c>
       <c r="D88">
-        <v>5.041109086907018</v>
+        <v>4.431369159690453</v>
       </c>
       <c r="E88">
-        <v>5.759569934304006</v>
+        <v>5.591747496735248</v>
       </c>
       <c r="F88">
-        <v>6.095934271267982</v>
+        <v>3.813101291639957</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2134,19 +2134,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>5.966527019867681</v>
+        <v>5.531522873980656</v>
       </c>
       <c r="C89">
-        <v>3.459763085157909</v>
+        <v>5.139478778901664</v>
       </c>
       <c r="D89">
-        <v>5.120557021416099</v>
+        <v>4.503675289957338</v>
       </c>
       <c r="E89">
-        <v>5.855157557453189</v>
+        <v>5.658601069381504</v>
       </c>
       <c r="F89">
-        <v>6.173663215911563</v>
+        <v>3.876255540318706</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2154,19 +2154,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6.042628642402989</v>
+        <v>5.619897100292693</v>
       </c>
       <c r="C90">
-        <v>3.513599676772521</v>
+        <v>5.222273727107175</v>
       </c>
       <c r="D90">
-        <v>5.200423537532878</v>
+        <v>4.575984579775523</v>
       </c>
       <c r="E90">
-        <v>5.950659583624797</v>
+        <v>5.725554716155662</v>
       </c>
       <c r="F90">
-        <v>6.251173681519883</v>
+        <v>3.939466838307804</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2174,19 +2174,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6.118410649802668</v>
+        <v>5.708036564283936</v>
       </c>
       <c r="C91">
-        <v>3.5681978893913</v>
+        <v>5.306011073606355</v>
       </c>
       <c r="D91">
-        <v>5.28063316786334</v>
+        <v>4.648295423236397</v>
       </c>
       <c r="E91">
-        <v>6.046043729247448</v>
+        <v>5.792581592748737</v>
       </c>
       <c r="F91">
-        <v>6.328432011701817</v>
+        <v>4.002719268992116</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2194,19 +2194,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6.193806206349969</v>
+        <v>5.795909070319309</v>
       </c>
       <c r="C92">
-        <v>3.62336509073657</v>
+        <v>5.39060001368405</v>
       </c>
       <c r="D92">
-        <v>5.361117998613977</v>
+        <v>4.720606411940102</v>
       </c>
       <c r="E92">
-        <v>6.141280927047036</v>
+        <v>5.859656609979433</v>
       </c>
       <c r="F92">
-        <v>6.405406590667372</v>
+        <v>4.066000081881382</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2214,19 +2214,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6.268756897325591</v>
+        <v>5.88348724870017</v>
       </c>
       <c r="C93">
-        <v>3.678930338961277</v>
+        <v>5.475953566860311</v>
       </c>
       <c r="D93">
-        <v>5.441817165456992</v>
+        <v>4.792916293201949</v>
       </c>
       <c r="E93">
-        <v>6.236344817635702</v>
+        <v>5.926756301009841</v>
       </c>
       <c r="F93">
-        <v>6.482067757068715</v>
+        <v>4.129299027572085</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2234,19 +2234,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6.343211901807908</v>
+        <v>5.970747713605521</v>
       </c>
       <c r="C94">
-        <v>3.734745553757822</v>
+        <v>5.561989175968957</v>
       </c>
       <c r="D94">
-        <v>5.522676329384827</v>
+        <v>4.865223939345497</v>
       </c>
       <c r="E94">
-        <v>6.331211257901776</v>
+        <v>5.993858703871294</v>
       </c>
       <c r="F94">
-        <v>6.558387726063704</v>
+        <v>4.1926078365224</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2254,19 +2254,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6.417127346290135</v>
+        <v>6.057670379117022</v>
       </c>
       <c r="C95">
-        <v>3.790684548125359</v>
+        <v>5.648629099930631</v>
       </c>
       <c r="D95">
-        <v>5.603647034057024</v>
+        <v>4.937528325647811</v>
       </c>
       <c r="E95">
-        <v>6.425858124259203</v>
+        <v>6.060943257073232</v>
       </c>
       <c r="F95">
-        <v>6.634340498868601</v>
+        <v>4.2559198283254</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2274,19 +2274,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6.490465551897526</v>
+        <v>6.14423792632171</v>
       </c>
       <c r="C96">
-        <v>3.846641224938792</v>
+        <v>5.735800634334733</v>
       </c>
       <c r="D96">
-        <v>5.6846861283012</v>
+        <v>5.009828512137775</v>
       </c>
       <c r="E96">
-        <v>6.520265016157202</v>
+        <v>6.127990706439031</v>
       </c>
       <c r="F96">
-        <v>6.709901776204429</v>
+        <v>4.319229587305232</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2294,19 +2294,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6.56319439076625</v>
+        <v>6.230435390980496</v>
       </c>
       <c r="C97">
-        <v>3.902527341292971</v>
+        <v>5.823436186115706</v>
       </c>
       <c r="D97">
-        <v>5.765755256240658</v>
+        <v>5.082123629851059</v>
       </c>
       <c r="E97">
-        <v>6.614413070121834</v>
+        <v>6.194983020455096</v>
       </c>
       <c r="F97">
-        <v>6.785048883579777</v>
+        <v>4.382532705936274</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2314,19 +2314,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6.635286696005353</v>
+        <v>6.31624980493329</v>
       </c>
       <c r="C98">
-        <v>3.95827006659033</v>
+        <v>5.911473229913415</v>
       </c>
       <c r="D98">
-        <v>5.846820348934937</v>
+        <v>5.154412870858701</v>
       </c>
       <c r="E98">
-        <v>6.708284810505805</v>
+        <v>6.261903313389405</v>
       </c>
       <c r="F98">
-        <v>6.859760699287524</v>
+        <v>4.445825586171685</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2334,19 +2334,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6.706719710012802</v>
+        <v>6.401669904295321</v>
       </c>
       <c r="C99">
-        <v>4.013809542681425</v>
+        <v>5.999854177317308</v>
       </c>
       <c r="D99">
-        <v>5.927851141069103</v>
+        <v>5.226695480233984</v>
       </c>
       <c r="E99">
-        <v>6.801864015398363</v>
+        <v>6.328735775236659</v>
       </c>
       <c r="F99">
-        <v>6.934017579487956</v>
+        <v>4.509105283331771</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2354,19 +2354,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6.777474535569303</v>
+        <v>6.486685901789106</v>
       </c>
       <c r="C100">
-        <v>4.069096722515286</v>
+        <v>6.08852618030576</v>
       </c>
       <c r="D100">
-        <v>6.00882074794812</v>
+        <v>5.298970749575441</v>
       </c>
       <c r="E100">
-        <v>6.895135600268421</v>
+        <v>6.395465606751635</v>
       </c>
       <c r="F100">
-        <v>7.007801286734467</v>
+        <v>4.572369382155968</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2374,19 +2374,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6.847535783419656</v>
+        <v>6.571289298363122</v>
       </c>
       <c r="C101">
-        <v>4.124091546521628</v>
+        <v>6.17744088908361</v>
       </c>
       <c r="D101">
-        <v>6.089705210402756</v>
+        <v>5.371238011981255</v>
       </c>
       <c r="E101">
-        <v>6.988085538918921</v>
+        <v>6.462078960565549</v>
       </c>
       <c r="F101">
-        <v>7.08109492345416</v>
+        <v>4.635615896167898</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2394,19 +2394,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6.916891156704411</v>
+        <v>6.655472726473829</v>
       </c>
       <c r="C102">
-        <v>4.178761376126948</v>
+        <v>6.266554182927472</v>
       </c>
       <c r="D102">
-        <v>6.17048324877116</v>
+        <v>5.443496637999367</v>
       </c>
       <c r="E102">
-        <v>7.080700788660544</v>
+        <v>6.52856288558708</v>
       </c>
       <c r="F102">
-        <v>7.153882865876338</v>
+        <v>4.698843188433634</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2414,19 +2414,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6.985531078673962</v>
+        <v>6.739229816641427</v>
       </c>
       <c r="C103">
-        <v>4.233079648968914</v>
+        <v>6.355825885902814</v>
       </c>
       <c r="D103">
-        <v>6.251135935578026</v>
+        <v>5.515746032273274</v>
       </c>
       <c r="E103">
-        <v>7.172969218354219</v>
+        <v>6.594905275193418</v>
       </c>
       <c r="F103">
-        <v>7.226150700228894</v>
+        <v>4.762049908545429</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2434,19 +2434,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7.053448373502544</v>
+        <v>6.822555086870429</v>
       </c>
       <c r="C104">
-        <v>4.287024765600795</v>
+        <v>6.445219478397879</v>
       </c>
       <c r="D104">
-        <v>6.33164640790199</v>
+        <v>5.587985630791917</v>
       </c>
       <c r="E104">
-        <v>7.264879547641375</v>
+        <v>6.661094819016403</v>
       </c>
       <c r="F104">
-        <v>7.297885162084903</v>
+        <v>4.825234941806189</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2454,19 +2454,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7.120638004261514</v>
+        <v>6.905443849818608</v>
       </c>
       <c r="C105">
-        <v>4.340579195303661</v>
+        <v>6.534701812396072</v>
       </c>
       <c r="D105">
-        <v>6.411999629501691</v>
+        <v>5.660214898573765</v>
       </c>
       <c r="E105">
-        <v>7.356421281311521</v>
+        <v>6.72712095785352</v>
       </c>
       <c r="F105">
-        <v>7.369074077845952</v>
+        <v>4.888397367968143</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2474,19 +2474,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>7.18709683241888</v>
+        <v>6.987892132688355</v>
       </c>
       <c r="C106">
-        <v>4.393728753107435</v>
+        <v>6.624242835967152</v>
       </c>
       <c r="D106">
-        <v>6.492182165499059</v>
+        <v>5.732433327700369</v>
       </c>
       <c r="E106">
-        <v>7.447584676518334</v>
+        <v>6.792973842128839</v>
       </c>
       <c r="F106">
-        <v>7.439706308453651</v>
+        <v>4.951536427950714</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2494,19 +2494,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>7.252823399178549</v>
+        <v>7.069896607498541</v>
       </c>
       <c r="C107">
-        <v>4.446462002934055</v>
+        <v>6.713815329256293</v>
       </c>
       <c r="D107">
-        <v>6.572182001014837</v>
+        <v>5.804640435624167</v>
       </c>
       <c r="E107">
-        <v>7.538360697539662</v>
+        <v>6.858644291451952</v>
       </c>
       <c r="F107">
-        <v>7.509771694952899</v>
+        <v>5.014651497205564</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2514,19 +2514,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7.317817721236882</v>
+        <v>7.151454531448372</v>
       </c>
       <c r="C108">
-        <v>4.498769776933531</v>
+        <v>6.803394656326326</v>
       </c>
       <c r="D108">
-        <v>6.65198841365571</v>
+        <v>5.876835763688684</v>
       </c>
       <c r="E108">
-        <v>7.628740972366781</v>
+        <v>6.924123757474952</v>
       </c>
       <c r="F108">
-        <v>7.579261006521914</v>
+        <v>5.077742063772337</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2534,19 +2534,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>7.382081122551598</v>
+        <v>7.232563694534158</v>
       </c>
       <c r="C109">
-        <v>4.550644784319147</v>
+        <v>6.892958535179033</v>
       </c>
       <c r="D109">
-        <v>6.731591789401982</v>
+        <v>5.949018875825822</v>
       </c>
       <c r="E109">
-        <v>7.718717751792413</v>
+        <v>6.989404288677629</v>
       </c>
       <c r="F109">
-        <v>7.648165890537973</v>
+        <v>5.140807710353735</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2554,19 +2554,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>7.445616087233717</v>
+        <v>7.313222373392072</v>
       </c>
       <c r="C110">
-        <v>4.602081296681112</v>
+        <v>6.982486824130306</v>
       </c>
       <c r="D110">
-        <v>6.810983540498672</v>
+        <v>6.021189357368312</v>
       </c>
       <c r="E110">
-        <v>7.808283875439351</v>
+        <v>7.054478497300636</v>
       </c>
       <c r="F110">
-        <v>7.716478825407965</v>
+        <v>5.203848099757784</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2574,19 +2574,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>7.508426094380322</v>
+        <v>7.393429290302633</v>
       </c>
       <c r="C111">
-        <v>4.653074892430745</v>
+        <v>7.071961324283556</v>
       </c>
       <c r="D111">
-        <v>6.890155985258729</v>
+        <v>6.093346813980903</v>
       </c>
       <c r="E111">
-        <v>7.897432740655858</v>
+        <v>7.119339528114271</v>
       </c>
       <c r="F111">
-        <v>7.784193075211614</v>
+        <v>5.266862962308344</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2594,19 +2594,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>7.570515549652978</v>
+        <v>7.473183576581338</v>
       </c>
       <c r="C112">
-        <v>4.703622247459544</v>
+        <v>7.161365598910892</v>
       </c>
       <c r="D112">
-        <v>6.969102239935283</v>
+        <v>6.165490870719768</v>
       </c>
       <c r="E112">
-        <v>7.986158272160059</v>
+        <v>7.183981028881089</v>
       </c>
       <c r="F112">
-        <v>7.851302646779818</v>
+        <v>5.32985208579691</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2614,19 +2614,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>7.631889649336569</v>
+        <v>7.552484740052294</v>
       </c>
       <c r="C113">
-        <v>4.753720963893785</v>
+        <v>7.250684808518452</v>
       </c>
       <c r="D113">
-        <v>7.047816138439684</v>
+        <v>6.237621171155522</v>
       </c>
       <c r="E113">
-        <v>8.074454893117506</v>
+        <v>7.248397122437082</v>
       </c>
       <c r="F113">
-        <v>7.917802247555539</v>
+        <v>5.392815307555304</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2634,19 +2634,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>7.692554284136066</v>
+        <v>7.631332635397543</v>
       </c>
       <c r="C114">
-        <v>4.803369430136747</v>
+        <v>7.339905561893733</v>
       </c>
       <c r="D114">
-        <v>7.126292167661318</v>
+        <v>6.309737376579679</v>
       </c>
       <c r="E114">
-        <v>8.162317498039423</v>
+        <v>7.312582380340046</v>
       </c>
       <c r="F114">
-        <v>7.983687245993352</v>
+        <v>5.455752507638442</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2654,19 +2654,19 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>7.752515954307817</v>
+        <v>7.70972743450081</v>
       </c>
       <c r="C115">
-        <v>4.852566705785398</v>
+        <v>7.429015780178303</v>
       </c>
       <c r="D115">
-        <v>7.204525393917882</v>
+        <v>6.381839165214412</v>
       </c>
       <c r="E115">
-        <v>8.249741424668043</v>
+        <v>7.376531797948318</v>
       </c>
       <c r="F115">
-        <v>8.048953634387859</v>
+        <v>5.518663603439832</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2674,19 +2674,19 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>7.811781691168838</v>
+        <v>7.787669604999126</v>
       </c>
       <c r="C116">
-        <v>4.901312426389244</v>
+        <v>7.518004573848005</v>
       </c>
       <c r="D116">
-        <v>7.282511405545896</v>
+        <v>6.453926231480985</v>
       </c>
       <c r="E116">
-        <v>8.33672243451846</v>
+        <v>7.440240770865328</v>
       </c>
       <c r="F116">
-        <v>8.113597992754235</v>
+        <v>5.581548544161378</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2694,19 +2694,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7.870358990535349</v>
+        <v>7.865159887482941</v>
       </c>
       <c r="C117">
-        <v>4.949606728400985</v>
+        <v>7.606862131558408</v>
       </c>
       <c r="D117">
-        <v>7.360246276313458</v>
+        <v>6.525998285346777</v>
       </c>
       <c r="E117">
-        <v>8.423256674775971</v>
+        <v>7.503705072643993</v>
       </c>
       <c r="F117">
-        <v>8.177617454830942</v>
+        <v>5.644407306637415</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2714,19 +2714,19 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>7.928255743488397</v>
+        <v>7.942199274736309</v>
       </c>
       <c r="C118">
-        <v>4.99745017366287</v>
+        <v>7.695579621608069</v>
       </c>
       <c r="D118">
-        <v>7.43772651114331</v>
+        <v>6.598055051689967</v>
       </c>
       <c r="E118">
-        <v>8.509340679478521</v>
+        <v>7.566920833852572</v>
       </c>
       <c r="F118">
-        <v>8.241009675654444</v>
+        <v>5.707239891958046</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2734,19 +2734,19 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>7.985480192888586</v>
+        <v>8.018788992464133</v>
       </c>
       <c r="C119">
-        <v>5.044843694884629</v>
+        <v>7.784149098665907</v>
       </c>
       <c r="D119">
-        <v>7.514949003803935</v>
+        <v>6.670096269702162</v>
       </c>
       <c r="E119">
-        <v>8.594971336476751</v>
+        <v>7.629884521873628</v>
       </c>
       <c r="F119">
-        <v>8.303772800778063</v>
+        <v>5.770046322583439</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2754,19 +2754,19 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>8.042040878479654</v>
+        <v>8.094930481848269</v>
       </c>
       <c r="C120">
-        <v>5.091788555065173</v>
+        <v>7.87256342487407</v>
       </c>
       <c r="D120">
-        <v>7.591911010872277</v>
+        <v>6.742121692318881</v>
       </c>
       <c r="E120">
-        <v>8.680145872563678</v>
+        <v>7.692592922542137</v>
       </c>
       <c r="F120">
-        <v>8.3659054368807</v>
+        <v>5.83282663985214</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2774,19 +2774,19 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>8.097946591290039</v>
+        <v>8.170625382883799</v>
       </c>
       <c r="C121">
-        <v>5.138286297996293</v>
+        <v>7.960816187570128</v>
       </c>
       <c r="D121">
-        <v>7.668610116007565</v>
+        <v>6.814131085699538</v>
       </c>
       <c r="E121">
-        <v>8.764861831028064</v>
+        <v>7.75504312051662</v>
       </c>
       <c r="F121">
-        <v>8.427406623975461</v>
+        <v>5.895580902018891</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2794,19 +2794,19 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>8.153206331328336</v>
+        <v>8.24587551956057</v>
       </c>
       <c r="C122">
-        <v>5.184338724541572</v>
+        <v>8.048901637530777</v>
       </c>
       <c r="D122">
-        <v>7.74504419775175</v>
+        <v>6.886124228636882</v>
       </c>
       <c r="E122">
-        <v>8.849117054673135</v>
+        <v>7.817232483937578</v>
       </c>
       <c r="F122">
-        <v>8.48827580976603</v>
+        <v>5.958309181674716</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2814,19 +2814,19 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>8.207829275607015</v>
+        <v>8.320682885802315</v>
       </c>
       <c r="C123">
-        <v>5.229947863916658</v>
+        <v>8.13681463684707</v>
       </c>
       <c r="D123">
-        <v>7.821211413490206</v>
+        <v>6.958100912217987</v>
       </c>
       <c r="E123">
-        <v>8.93290967141227</v>
+        <v>7.879158648554143</v>
       </c>
       <c r="F123">
-        <v>8.548512823356628</v>
+        <v>6.021011565183793</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2834,19 +2834,19 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>8.261824743826567</v>
+        <v>8.395049632337274</v>
       </c>
       <c r="C124">
-        <v>5.275115941689951</v>
+        <v>8.224550598523621</v>
       </c>
       <c r="D124">
-        <v>7.897110173250073</v>
+        <v>7.030060939035052</v>
       </c>
       <c r="E124">
-        <v>9.016238073467875</v>
+        <v>7.940819501645059</v>
       </c>
       <c r="F124">
-        <v>8.608117853509752</v>
+        <v>6.083688149370417</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2854,19 +2854,19 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>8.315202167427836</v>
+        <v>8.468978055391554</v>
       </c>
       <c r="C125">
-        <v>5.31984535746186</v>
+        <v>8.312105435737998</v>
       </c>
       <c r="D125">
-        <v>7.972739117336414</v>
+        <v>7.102004123175655</v>
       </c>
       <c r="E125">
-        <v>9.099100906139176</v>
+        <v>8.002213168444834</v>
       </c>
       <c r="F125">
-        <v>8.667091419900864</v>
+        <v>6.146339042612882</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2874,19 +2874,19 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>8.367971065701603</v>
+        <v>8.542470585310459</v>
       </c>
       <c r="C126">
-        <v>5.364138665948021</v>
+        <v>8.399475522641255</v>
       </c>
       <c r="D126">
-        <v>8.048097103600529</v>
+        <v>7.173930289283544</v>
       </c>
       <c r="E126">
-        <v>9.181497056458692</v>
+        <v>8.063337998443245</v>
       </c>
       <c r="F126">
-        <v>8.725434362153434</v>
+        <v>6.20896436182936</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2894,19 +2894,19 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>8.42014102190741</v>
+        <v>8.615529773411858</v>
       </c>
       <c r="C127">
-        <v>5.40799856113276</v>
+        <v>8.486657650573896</v>
       </c>
       <c r="D127">
-        <v>8.123183193742905</v>
+        <v>7.245839272672483</v>
       </c>
       <c r="E127">
-        <v>9.263425624425851</v>
+        <v>8.124192552175215</v>
       </c>
       <c r="F127">
-        <v>8.783147805786667</v>
+        <v>6.271564232914121</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2914,19 +2914,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>8.471721661475748</v>
+        <v>8.688158286673106</v>
       </c>
       <c r="C128">
-        <v>5.451427860243466</v>
+        <v>8.57364898967843</v>
       </c>
       <c r="D128">
-        <v>8.197996619805023</v>
+        <v>7.317730918464046</v>
       </c>
       <c r="E128">
-        <v>9.34488594057548</v>
+        <v>8.184775588423197</v>
       </c>
       <c r="F128">
-        <v>8.840233159407846</v>
+        <v>6.334138789474382</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2934,19 +2934,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>8.522722631314362</v>
+        <v>8.760358890475906</v>
       </c>
       <c r="C129">
-        <v>5.494429490360879</v>
+        <v>8.660447059417494</v>
       </c>
       <c r="D129">
-        <v>8.272536803550224</v>
+        <v>7.389605081583421</v>
       </c>
       <c r="E129">
-        <v>9.425877514342456</v>
+        <v>8.245086053917886</v>
       </c>
       <c r="F129">
-        <v>8.896692082954271</v>
+        <v>6.396688171674345</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -2954,19 +2954,19 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>8.573153585867049</v>
+        <v>8.832134450839973</v>
       </c>
       <c r="C130">
-        <v>5.537006478389655</v>
+        <v>8.747049699640371</v>
       </c>
       <c r="D130">
-        <v>8.34680330348222</v>
+        <v>7.461461626100069</v>
       </c>
       <c r="E130">
-        <v>9.506400065539262</v>
+        <v>8.305123071867049</v>
       </c>
       <c r="F130">
-        <v>8.95252647985118</v>
+        <v>6.459212526192705</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -2974,19 +2974,19 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>8.623024172966922</v>
+        <v>8.903487914317585</v>
       </c>
       <c r="C131">
-        <v>5.57916193837973</v>
+        <v>8.833455042313201</v>
       </c>
       <c r="D131">
-        <v>8.420795829973617</v>
+        <v>7.533300425066804</v>
       </c>
       <c r="E131">
-        <v>9.586453474788977</v>
+        <v>8.364885931238966</v>
       </c>
       <c r="F131">
-        <v>9.00773847533536</v>
+        <v>6.521712005016581</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -2994,19 +2994,19 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>8.672344008221101</v>
+        <v>8.974422313311294</v>
       </c>
       <c r="C132">
-        <v>5.62089906159963</v>
+        <v>8.919661485769865</v>
       </c>
       <c r="D132">
-        <v>8.494514245539275</v>
+        <v>7.605121360033599</v>
       </c>
       <c r="E132">
-        <v>9.666037803759705</v>
+        <v>8.424374077598838</v>
       </c>
       <c r="F132">
-        <v>9.062330401150469</v>
+        <v>6.58418676527506</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3014,19 +3014,19 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>8.721122685333308</v>
+        <v>9.044940747400492</v>
       </c>
       <c r="C133">
-        <v>5.662221108012098</v>
+        <v>9.0056676758047</v>
       </c>
       <c r="D133">
-        <v>8.567958509658645</v>
+        <v>7.676924320827664</v>
       </c>
       <c r="E133">
-        <v>9.745153262800583</v>
+        <v>8.48358710370592</v>
       </c>
       <c r="F133">
-        <v>9.116304784818938</v>
+        <v>6.646636968550499</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3034,19 +3034,19 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>8.769369727248405</v>
+        <v>9.115046385899896</v>
       </c>
       <c r="C134">
-        <v>5.703131398590575</v>
+        <v>9.09147248774172</v>
       </c>
       <c r="D134">
-        <v>8.641128740581181</v>
+        <v>7.748709205149892</v>
       </c>
       <c r="E134">
-        <v>9.823800216377771</v>
+        <v>8.542524741638571</v>
       </c>
       <c r="F134">
-        <v>9.169664329354731</v>
+        <v>6.709062780511903</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3054,19 +3054,19 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>8.817094628233102</v>
+        <v>9.184742454551055</v>
       </c>
       <c r="C135">
-        <v>5.743633307872277</v>
+        <v>9.177074991247956</v>
       </c>
       <c r="D135">
-        <v>8.714025134266864</v>
+        <v>7.820475918355058</v>
       </c>
       <c r="E135">
-        <v>9.901979164608754</v>
+        <v>8.601186851766986</v>
       </c>
       <c r="F135">
-        <v>9.222411908011573</v>
+        <v>6.771464370722298</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3074,19 +3074,19 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>8.864306786949902</v>
+        <v>9.254032234000043</v>
       </c>
       <c r="C136">
-        <v>5.783730256836125</v>
+        <v>9.262474466646367</v>
       </c>
       <c r="D136">
-        <v>8.786648017285779</v>
+        <v>7.892224373093951</v>
       </c>
       <c r="E136">
-        <v>9.979690740043878</v>
+        <v>8.65957341856832</v>
       </c>
       <c r="F136">
-        <v>9.27455054506243</v>
+        <v>6.833841911925486</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3094,19 +3094,19 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>8.911015557403275</v>
+        <v>9.322919051321765</v>
       </c>
       <c r="C137">
-        <v>5.823425707917524</v>
+        <v>9.347670337357494</v>
       </c>
       <c r="D137">
-        <v>8.858997800447371</v>
+        <v>7.963954489073361</v>
       </c>
       <c r="E137">
-        <v>10.05693569839581</v>
+        <v>8.717684539105536</v>
       </c>
       <c r="F137">
-        <v>9.32608340931856</v>
+        <v>6.896195580141204</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3114,19 +3114,19 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>8.957230191754574</v>
+        <v>9.391406277116529</v>
       </c>
       <c r="C138">
-        <v>5.862723159529101</v>
+        <v>9.432662216156411</v>
       </c>
       <c r="D138">
-        <v>8.931074991292208</v>
+        <v>8.035666192779662</v>
       </c>
       <c r="E138">
-        <v>10.13371490823293</v>
+        <v>8.775520417951618</v>
       </c>
       <c r="F138">
-        <v>9.377013800538275</v>
+        <v>6.958525554037898</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3134,19 +3134,19 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>9.002959873642224</v>
+        <v>9.459497318586999</v>
       </c>
       <c r="C139">
-        <v>5.901626137502233</v>
+        <v>9.517449841002426</v>
       </c>
       <c r="D139">
-        <v>9.002880183735362</v>
+        <v>8.107359417190089</v>
       </c>
       <c r="E139">
-        <v>10.21002935136126</v>
+        <v>8.833081363364315</v>
       </c>
       <c r="F139">
-        <v>9.427345138888159</v>
+        <v>7.020832014856365</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3154,19 +3154,19 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>9.048213684545498</v>
+        <v>9.527195617161627</v>
       </c>
       <c r="C140">
-        <v>5.940138197282668</v>
+        <v>9.602033097210336</v>
       </c>
       <c r="D140">
-        <v>9.074414048334686</v>
+        <v>8.179034101584262</v>
       </c>
       <c r="E140">
-        <v>10.28588010518551</v>
+        <v>8.890367773649634</v>
       </c>
       <c r="F140">
-        <v>9.477080957625997</v>
+        <v>7.083115146075612</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3174,19 +3174,19 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>9.09300061747334</v>
+        <v>9.594504642327708</v>
       </c>
       <c r="C141">
-        <v>5.978262907531717</v>
+        <v>9.686411996302006</v>
       </c>
       <c r="D141">
-        <v>9.145677336640603</v>
+        <v>8.250690191211241</v>
       </c>
       <c r="E141">
-        <v>10.3612683494642</v>
+        <v>8.947380142364455</v>
       </c>
       <c r="F141">
-        <v>9.526224889639474</v>
+        <v>7.145375133176406</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3194,19 +3194,19 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>9.137329560528887</v>
+        <v>9.661427889416535</v>
       </c>
       <c r="C142">
-        <v>6.016003862617367</v>
+        <v>9.770586659674771</v>
       </c>
       <c r="D142">
-        <v>9.216670862113455</v>
+        <v>8.322327637255007</v>
       </c>
       <c r="E142">
-        <v>10.43619534667376</v>
+        <v>9.00411904036568</v>
       </c>
       <c r="F142">
-        <v>9.57478066349057</v>
+        <v>7.207612163545825</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3214,19 +3214,19 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>9.181209301825163</v>
+        <v>9.727968874511125</v>
       </c>
       <c r="C143">
-        <v>6.053364660679839</v>
+        <v>9.854557324122339</v>
       </c>
       <c r="D143">
-        <v>9.287395515525526</v>
+        <v>8.393946396288641</v>
       </c>
       <c r="E143">
-        <v>10.51066244916458</v>
+        <v>9.060585122198663</v>
       </c>
       <c r="F143">
-        <v>9.622752090906877</v>
+        <v>7.269826426125882</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3234,19 +3234,19 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>9.224648519980388</v>
+        <v>9.794131131869038</v>
       </c>
       <c r="C144">
-        <v>6.090348916289825</v>
+        <v>9.938324316703818</v>
       </c>
       <c r="D144">
-        <v>9.357852239746114</v>
+        <v>8.465546430214033</v>
       </c>
       <c r="E144">
-        <v>10.58467108197799</v>
+        <v>9.116779110803135</v>
       </c>
       <c r="F144">
-        <v>9.670143062208966</v>
+        <v>7.332018111432277</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3254,19 +3254,19 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>9.267655786678555</v>
+        <v>9.859918210154085</v>
       </c>
       <c r="C145">
-        <v>6.126960247068554</v>
+        <v>10.02188806119492</v>
       </c>
       <c r="D145">
-        <v>9.42804204282136</v>
+        <v>8.537127706438124</v>
       </c>
       <c r="E145">
-        <v>10.65822274780522</v>
+        <v>9.172701801456967</v>
       </c>
       <c r="F145">
-        <v>9.716957537346911</v>
+        <v>7.394187411242441</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3274,19 +3274,19 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>9.31023956244703</v>
+        <v>9.925333669417634</v>
       </c>
       <c r="C146">
-        <v>6.163202275258334</v>
+        <v>10.10524905788993</v>
       </c>
       <c r="D146">
-        <v>9.497965987054114</v>
+        <v>8.608690196762405</v>
       </c>
       <c r="E146">
-        <v>10.73131901377089</v>
+        <v>9.228354049247404</v>
       </c>
       <c r="F146">
-        <v>9.763199538904562</v>
+        <v>7.456334518552645</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3294,19 +3294,19 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>9.352408194856455</v>
+        <v>9.990381078552687</v>
       </c>
       <c r="C147">
-        <v>6.199078624257081</v>
+        <v>10.18840789009066</v>
       </c>
       <c r="D147">
-        <v>9.567625184669645</v>
+        <v>8.680233877891778</v>
       </c>
       <c r="E147">
-        <v>10.8039615128065</v>
+        <v>9.28373677221996</v>
       </c>
       <c r="F147">
-        <v>9.808873147359094</v>
+        <v>7.518459627399241</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3314,19 +3314,19 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>9.394169920004316</v>
+        <v>10.05506401199693</v>
       </c>
       <c r="C148">
-        <v>6.234592914468791</v>
+        <v>10.27136520312823</v>
       </c>
       <c r="D148">
-        <v>9.637020800457623</v>
+        <v>8.751758731594629</v>
       </c>
       <c r="E148">
-        <v>10.87615193631309</v>
+        <v>9.338850939959963</v>
       </c>
       <c r="F148">
-        <v>9.853982491979748</v>
+        <v>7.580562932723447</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3334,19 +3334,19 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>9.435532857396669</v>
+        <v>10.11938604815233</v>
       </c>
       <c r="C149">
-        <v>6.269748762732332</v>
+        <v>10.35412171706326</v>
       </c>
       <c r="D149">
-        <v>9.706154041105444</v>
+        <v>8.823264743287755</v>
       </c>
       <c r="E149">
-        <v>10.94789202978627</v>
+        <v>9.393697577082889</v>
       </c>
       <c r="F149">
-        <v>9.898531748438653</v>
+        <v>7.642644630310841</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3354,19 +3354,19 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>9.476505013906225</v>
+        <v>10.18335076595895</v>
       </c>
       <c r="C150">
-        <v>6.304549778120432</v>
+        <v>10.43667820185793</v>
       </c>
       <c r="D150">
-        <v>9.775026159996319</v>
+        <v>8.8947519029321</v>
       </c>
       <c r="E150">
-        <v>11.0191835912406</v>
+        <v>9.448277753952713</v>
       </c>
       <c r="F150">
-        <v>9.942525130377648</v>
+        <v>7.704704916612892</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3374,19 +3374,19 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>9.517094278749868</v>
+        <v>10.24696174403912</v>
       </c>
       <c r="C151">
-        <v>6.338999562266733</v>
+        <v>10.51903549250159</v>
       </c>
       <c r="D151">
-        <v>9.843638447408145</v>
+        <v>8.966220204857706</v>
       </c>
       <c r="E151">
-        <v>11.09002846372126</v>
+        <v>9.502592586712048</v>
       </c>
       <c r="F151">
-        <v>9.985966886513994</v>
+        <v>7.766743988729542</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3394,19 +3394,19 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>9.557308427483184</v>
+        <v>10.31022255723461</v>
       </c>
       <c r="C152">
-        <v>6.373101704273815</v>
+        <v>10.60119446720475</v>
       </c>
       <c r="D152">
-        <v>9.911992234106474</v>
+        <v>9.03766964675628</v>
       </c>
       <c r="E152">
-        <v>11.16042853741792</v>
+        <v>9.556643233109609</v>
       </c>
       <c r="F152">
-        <v>10.02886129465573</v>
+        <v>7.828762044257903</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3414,19 +3414,19 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>9.597155117964796</v>
+        <v>10.37313677631151</v>
       </c>
       <c r="C153">
-        <v>6.40685978312754</v>
+        <v>10.68315605713824</v>
       </c>
       <c r="D153">
-        <v>9.980088884610456</v>
+        <v>9.109100230365149</v>
       </c>
       <c r="E153">
-        <v>11.23038573953245</v>
+        <v>9.610430888678213</v>
       </c>
       <c r="F153">
-        <v>10.07121265719339</v>
+        <v>7.890759281250225</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3434,19 +3434,19 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>9.636641894670097</v>
+        <v>10.43570796450585</v>
       </c>
       <c r="C154">
-        <v>6.440277361320605</v>
+        <v>10.7649212332593</v>
       </c>
       <c r="D154">
-        <v>10.0479297968215</v>
+        <v>9.180511961108744</v>
       </c>
       <c r="E154">
-        <v>11.29990203812806</v>
+        <v>9.663956785897794</v>
       </c>
       <c r="F154">
-        <v>10.11302529801227</v>
+        <v>7.952735898130013</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3454,19 +3454,19 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>9.67577618479433</v>
+        <v>10.49793967771832</v>
       </c>
       <c r="C155">
-        <v>6.473357988279831</v>
+        <v>10.8464910082857</v>
       </c>
       <c r="D155">
-        <v>10.11551640108202</v>
+        <v>9.251904847591742</v>
       </c>
       <c r="E155">
-        <v>11.36897943246779</v>
+        <v>9.717222188712828</v>
       </c>
       <c r="F155">
-        <v>10.15430355647325</v>
+        <v>8.014692093600649</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3474,19 +3474,19 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>9.714565303428531</v>
+        <v>10.55983546106104</v>
       </c>
       <c r="C156">
-        <v>6.506105194320058</v>
+        <v>10.92786643076303</v>
       </c>
       <c r="D156">
-        <v>10.18285015452385</v>
+        <v>9.323278901957876</v>
       </c>
       <c r="E156">
-        <v>11.43761995663772</v>
+        <v>9.770228393157282</v>
       </c>
       <c r="F156">
-        <v>10.19505178603163</v>
+        <v>8.076628066621115</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3494,19 +3494,19 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>9.753016449587236</v>
+        <v>10.62139884951522</v>
       </c>
       <c r="C157">
-        <v>6.538522493538505</v>
+        <v>11.00904858273061</v>
       </c>
       <c r="D157">
-        <v>10.24993254441524</v>
+        <v>9.39463413949864</v>
       </c>
       <c r="E157">
-        <v>11.50582567093193</v>
+        <v>9.822976721454655</v>
       </c>
       <c r="F157">
-        <v>10.23527434861347</v>
+        <v>8.13854401630255</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3514,19 +3514,19 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>9.791136711636192</v>
+        <v>10.6826333644966</v>
       </c>
       <c r="C158">
-        <v>6.570613378954766</v>
+        <v>11.09003857780229</v>
       </c>
       <c r="D158">
-        <v>10.31676508062622</v>
+        <v>9.465970578408243</v>
       </c>
       <c r="E158">
-        <v>11.57359866404752</v>
+        <v>9.875468523547497</v>
       </c>
       <c r="F158">
-        <v>10.27497561289798</v>
+        <v>8.200440141892752</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3534,19 +3534,19 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>9.828933064001808</v>
+        <v>10.74354251480053</v>
       </c>
       <c r="C159">
-        <v>6.602381324496763</v>
+        <v>11.17083755643831</v>
       </c>
       <c r="D159">
-        <v>10.38334929920706</v>
+        <v>9.537288240057295</v>
       </c>
       <c r="E159">
-        <v>11.6409410477529</v>
+        <v>9.927705170879573</v>
       </c>
       <c r="F159">
-        <v>10.3141599503494</v>
+        <v>8.262316642715156</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3554,19 +3554,19 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>9.866412371955876</v>
+        <v>10.804129793438</v>
       </c>
       <c r="C160">
-        <v>6.633829781433165</v>
+        <v>11.25144668705913</v>
       </c>
       <c r="D160">
-        <v>10.44968675662329</v>
+        <v>9.608587148485912</v>
       </c>
       <c r="E160">
-        <v>11.70785495586368</v>
+        <v>9.979688058675892</v>
       </c>
       <c r="F160">
-        <v>10.35283173246528</v>
+        <v>8.324173718109833</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3574,19 +3574,19 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>9.903581389488703</v>
+        <v>10.86439867856107</v>
       </c>
       <c r="C161">
-        <v>6.664962179371829</v>
+        <v>11.33186715944427</v>
       </c>
       <c r="D161">
-        <v>10.51577903059835</v>
+        <v>9.679867330342518</v>
       </c>
       <c r="E161">
-        <v>11.77434254238828</v>
+        <v>10.03141859969523</v>
       </c>
       <c r="F161">
-        <v>10.39099532996538</v>
+        <v>8.386011567350108</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3594,19 +3594,19 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>9.940446763292192</v>
+        <v>10.9243526307003</v>
       </c>
       <c r="C162">
-        <v>6.695781924156815</v>
+        <v>11.4121001877005</v>
       </c>
       <c r="D162">
-        <v>10.5816277181764</v>
+        <v>9.751128815190173</v>
       </c>
       <c r="E162">
-        <v>11.84040597805695</v>
+        <v>10.08289822673221</v>
       </c>
       <c r="F162">
-        <v>10.428655105896</v>
+        <v>8.447830389785869</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3614,19 +3614,19 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>9.977015031571637</v>
+        <v>10.9839950936027</v>
       </c>
       <c r="C163">
-        <v>6.726292397690202</v>
+        <v>11.49214700323124</v>
       </c>
       <c r="D163">
-        <v>10.64723443319873</v>
+        <v>9.822371634797035</v>
       </c>
       <c r="E163">
-        <v>11.90604745082567</v>
+        <v>10.1341283869815</v>
       </c>
       <c r="F163">
-        <v>10.46581541651618</v>
+        <v>8.509630384493271</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3634,19 +3634,19 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>10.01329262757834</v>
+        <v>11.043329491854</v>
       </c>
       <c r="C164">
-        <v>6.756496957224147</v>
+        <v>11.57200885789278</v>
       </c>
       <c r="D164">
-        <v>10.71260080713675</v>
+        <v>9.893595823336584</v>
       </c>
       <c r="E164">
-        <v>11.97126916108135</v>
+        <v>10.18511054359817</v>
       </c>
       <c r="F164">
-        <v>10.50248061112501</v>
+        <v>8.571411750489972</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3654,19 +3654,19 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>10.04928587898452</v>
+        <v>11.10235923162876</v>
       </c>
       <c r="C165">
-        <v>6.786398934235366</v>
+        <v>11.6516870177617</v>
       </c>
       <c r="D165">
-        <v>10.77772848497346</v>
+        <v>9.964801417559499</v>
       </c>
       <c r="E165">
-        <v>12.03607332335579</v>
+        <v>10.23584617219864</v>
       </c>
       <c r="F165">
-        <v>10.53865502019817</v>
+        <v>8.633174686715151</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3674,19 +3674,19 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>10.0850010110832</v>
+        <v>11.16108769865096</v>
       </c>
       <c r="C166">
-        <v>6.816001634719624</v>
+        <v>11.73118276578971</v>
       </c>
       <c r="D166">
-        <v>10.84261912727799</v>
+        <v>10.03598845611928</v>
       </c>
       <c r="E166">
-        <v>12.10046216116973</v>
+        <v>10.28633676037041</v>
       </c>
       <c r="F166">
-        <v>10.57434296803132</v>
+        <v>8.694919391739406</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3694,19 +3694,19 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>10.12044414679605</v>
+        <v>11.2195182588785</v>
       </c>
       <c r="C167">
-        <v>6.845308337531241</v>
+        <v>11.81049739649489</v>
       </c>
       <c r="D167">
-        <v>10.90727440581962</v>
+        <v>10.10715697985755</v>
       </c>
       <c r="E167">
-        <v>12.16443790910892</v>
+        <v>10.33658380622179</v>
       </c>
       <c r="F167">
-        <v>10.60954876036951</v>
+        <v>8.756646064100753</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3714,19 +3714,19 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>10.15562130926705</v>
+        <v>11.27765425675282</v>
       </c>
       <c r="C168">
-        <v>6.87432229519868</v>
+        <v>11.88963221815319</v>
       </c>
       <c r="D168">
-        <v>10.97169600582631</v>
+        <v>10.17830703183422</v>
       </c>
       <c r="E168">
-        <v>12.22800280798978</v>
+        <v>10.38658881662758</v>
       </c>
       <c r="F168">
-        <v>10.64427668187398</v>
+        <v>8.818354902008162</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3734,19 +3734,19 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>10.19053842266308</v>
+        <v>11.33549901583065</v>
       </c>
       <c r="C169">
-        <v>6.903046732137138</v>
+        <v>11.96858854850818</v>
       </c>
       <c r="D169">
-        <v>11.03588562246427</v>
+        <v>10.2494386568223</v>
       </c>
       <c r="E169">
-        <v>12.29115910651283</v>
+        <v>10.43635330701447</v>
       </c>
       <c r="F169">
-        <v>10.67853100810184</v>
+        <v>8.880046103393669</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3754,19 +3754,19 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>10.22520131412083</v>
+        <v>11.39305583738617</v>
       </c>
       <c r="C170">
-        <v>6.931484845662664</v>
+        <v>12.04736771596513</v>
       </c>
       <c r="D170">
-        <v>11.09984495884649</v>
+        <v>10.32055190153316</v>
       </c>
       <c r="E170">
-        <v>12.3539090577128</v>
+        <v>10.48587879892363</v>
       </c>
       <c r="F170">
-        <v>10.71231598579275</v>
+        <v>8.94171986601383</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3774,19 +3774,19 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>10.25961571512323</v>
+        <v>11.45032800126098</v>
       </c>
       <c r="C171">
-        <v>6.959639804262028</v>
+        <v>12.12597105708307</v>
       </c>
       <c r="D171">
-        <v>11.16357572746916</v>
+        <v>10.39164681457297</v>
       </c>
       <c r="E171">
-        <v>12.41625491919208</v>
+        <v>10.53516682056551</v>
       </c>
       <c r="F171">
-        <v>10.74563584355349</v>
+        <v>9.003376387231619</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3794,19 +3794,19 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>10.29378726309784</v>
+        <v>11.50731876349451</v>
       </c>
       <c r="C172">
-        <v>6.987514748698048</v>
+        <v>12.20439991616581</v>
       </c>
       <c r="D172">
-        <v>11.22707965348095</v>
+        <v>10.46272344609121</v>
       </c>
       <c r="E172">
-        <v>12.47819895149754</v>
+        <v>10.58421890405104</v>
       </c>
       <c r="F172">
-        <v>10.77849478972552</v>
+        <v>9.065015864140415</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3814,19 +3814,19 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>10.32772150304715</v>
+        <v>11.5640313574477</v>
       </c>
       <c r="C173">
-        <v>7.01511279037878</v>
+        <v>12.28265564443057</v>
       </c>
       <c r="D173">
-        <v>11.29035846090631</v>
+        <v>10.53378184796195</v>
       </c>
       <c r="E173">
-        <v>12.53974341678506</v>
+        <v>10.63303658636895</v>
       </c>
       <c r="F173">
-        <v>10.81089700486305</v>
+        <v>9.12663849351288</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3834,19 +3834,19 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>10.36142388903131</v>
+        <v>11.62046899496416</v>
       </c>
       <c r="C174">
-        <v>7.042437012498814</v>
+        <v>12.36073959853686</v>
       </c>
       <c r="D174">
-        <v>11.35341388068588</v>
+        <v>10.60482207371725</v>
       </c>
       <c r="E174">
-        <v>12.60089057871493</v>
+        <v>10.68162140657608</v>
       </c>
       <c r="F174">
-        <v>10.84284664789536</v>
+        <v>9.188244471739401</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -3854,19 +3854,19 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>10.39489978587063</v>
+        <v>11.67663486134309</v>
       </c>
       <c r="C175">
-        <v>7.069490468584447</v>
+        <v>12.43865314072524</v>
       </c>
       <c r="D175">
-        <v>11.41624765707276</v>
+        <v>10.67584417823278</v>
       </c>
       <c r="E175">
-        <v>12.66164270020136</v>
+        <v>10.7299749069097</v>
       </c>
       <c r="F175">
-        <v>10.87434785051961</v>
+        <v>9.249833994922097</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -3874,19 +3874,19 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>10.42815447060923</v>
+        <v>11.73253211942573</v>
       </c>
       <c r="C176">
-        <v>7.096276183448545</v>
+        <v>12.51639763689259</v>
       </c>
       <c r="D176">
-        <v>11.47886153280565</v>
+        <v>10.74684821793384</v>
       </c>
       <c r="E176">
-        <v>12.72200204414866</v>
+        <v>10.7780986301639</v>
       </c>
       <c r="F176">
-        <v>10.90540471667436</v>
+        <v>9.311407258739809</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -3894,19 +3894,19 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>10.46119313420647</v>
+        <v>11.78816391056274</v>
       </c>
       <c r="C177">
-        <v>7.122797152247135</v>
+        <v>12.5939744571903</v>
       </c>
       <c r="D177">
-        <v>11.54125725217046</v>
+        <v>10.81783425065876</v>
       </c>
       <c r="E177">
-        <v>12.78197087083925</v>
+        <v>10.82599412068698</v>
       </c>
       <c r="F177">
-        <v>10.9360213253657</v>
+        <v>9.372964458507631</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -3914,19 +3914,19 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>10.4940208830256</v>
+        <v>11.84353334817194</v>
       </c>
       <c r="C178">
-        <v>7.14905634092399</v>
+        <v>12.67138497398684</v>
       </c>
       <c r="D178">
-        <v>11.60343656543956</v>
+        <v>10.88880233545241</v>
       </c>
       <c r="E178">
-        <v>12.84155143902928</v>
+        <v>10.87366292222216</v>
       </c>
       <c r="F178">
-        <v>10.96620172393882</v>
+        <v>9.434505789188863</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -3934,19 +3934,19 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>10.52664274045061</v>
+        <v>11.89864352337312</v>
       </c>
       <c r="C179">
-        <v>7.175056685890242</v>
+        <v>12.74863056268627</v>
       </c>
       <c r="D179">
-        <v>11.66540123108541</v>
+        <v>10.95975253274095</v>
       </c>
       <c r="E179">
-        <v>12.90074600334221</v>
+        <v>10.92110657839665</v>
       </c>
       <c r="F179">
-        <v>10.99594993231738</v>
+        <v>9.496031445303929</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -3954,19 +3954,19 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>10.55906364844201</v>
+        <v>11.95349750482525</v>
       </c>
       <c r="C180">
-        <v>7.200801094022307</v>
+        <v>12.82571259971476</v>
       </c>
       <c r="D180">
-        <v>11.72715300092523</v>
+        <v>11.03068490414375</v>
       </c>
       <c r="E180">
-        <v>12.95955681540653</v>
+        <v>10.9683266314537</v>
       </c>
       <c r="F180">
-        <v>11.02526994230065</v>
+        <v>9.557541621012419</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -3974,19 +3974,19 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>10.5912884690271</v>
+        <v>12.00809833404461</v>
       </c>
       <c r="C181">
-        <v>7.226292442784186</v>
+        <v>12.9026324634312</v>
       </c>
       <c r="D181">
-        <v>11.78869363046949</v>
+        <v>11.10159951236682</v>
       </c>
       <c r="E181">
-        <v>13.01798612156364</v>
+        <v>11.01532462195716</v>
       </c>
       <c r="F181">
-        <v>11.05416571232039</v>
+        <v>9.619036510064229</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -3994,19 +3994,19 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>10.62332198594694</v>
+        <v>12.06244902966527</v>
       </c>
       <c r="C182">
-        <v>7.251533580121552</v>
+        <v>12.9793915322354</v>
       </c>
       <c r="D182">
-        <v>11.8500248805006</v>
+        <v>11.17249642134185</v>
       </c>
       <c r="E182">
-        <v>13.07603616353045</v>
+        <v>11.06210208833952</v>
       </c>
       <c r="F182">
-        <v>11.08264117317174</v>
+        <v>9.680516305773613</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4014,19 +4014,19 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>10.65516890600192</v>
+        <v>12.116552586752</v>
       </c>
       <c r="C183">
-        <v>7.276527324782877</v>
+        <v>13.05599118544861</v>
       </c>
       <c r="D183">
-        <v>11.9111485083856</v>
+        <v>11.24337569599697</v>
       </c>
       <c r="E183">
-        <v>13.13370917712884</v>
+        <v>11.10866056609214</v>
       </c>
       <c r="F183">
-        <v>11.11070022300091</v>
+        <v>9.741981201077504</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4034,19 +4034,19 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>10.68683386078177</v>
+        <v>12.17041197457288</v>
       </c>
       <c r="C184">
-        <v>7.30127646540057</v>
+        <v>13.13243280167089</v>
       </c>
       <c r="D184">
-        <v>11.9720662711172</v>
+        <v>11.31423740224094</v>
       </c>
       <c r="E184">
-        <v>13.19100739194185</v>
+        <v>11.15500158782754</v>
       </c>
       <c r="F184">
-        <v>11.13834672803818</v>
+        <v>9.803431388458449</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4054,19 +4054,19 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>10.71832140787732</v>
+        <v>12.22403013886956</v>
       </c>
       <c r="C185">
-        <v>7.325783761450179</v>
+        <v>13.20871775935864</v>
       </c>
       <c r="D185">
-        <v>12.03277992615021</v>
+        <v>11.3850816070738</v>
       </c>
       <c r="E185">
-        <v>13.24793303103717</v>
+        <v>11.20112668219755</v>
       </c>
       <c r="F185">
-        <v>11.16558452478177</v>
+        <v>9.864867059987386</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4074,19 +4074,19 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>10.74963603264282</v>
+        <v>12.27741000132041</v>
       </c>
       <c r="C186">
-        <v>7.350051944287019</v>
+        <v>13.2848474358208</v>
       </c>
       <c r="D186">
-        <v>12.09329123129365</v>
+        <v>11.45590837831241</v>
       </c>
       <c r="E186">
-        <v>13.30448830999203</v>
+        <v>11.24703737424835</v>
       </c>
       <c r="F186">
-        <v>11.19241741533169</v>
+        <v>9.926288407320328</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4094,19 +4094,19 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>10.78078214910361</v>
+        <v>12.33055445851991</v>
       </c>
       <c r="C187">
-        <v>7.374083714018552</v>
+        <v>13.36082320719461</v>
       </c>
       <c r="D187">
-        <v>12.1536019399918</v>
+        <v>11.52671778466664</v>
       </c>
       <c r="E187">
-        <v>13.36067543718624</v>
+        <v>11.29273518424108</v>
       </c>
       <c r="F187">
-        <v>11.21884917031358</v>
+        <v>9.987695621660713</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4114,19 +4114,19 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>10.81176410227809</v>
+        <v>12.38346638348496</v>
       </c>
       <c r="C188">
-        <v>7.397881741916633</v>
+        <v>13.43664644805194</v>
       </c>
       <c r="D188">
-        <v>12.21371380422051</v>
+        <v>11.59750989579573</v>
       </c>
       <c r="E188">
-        <v>13.41649661253603</v>
+        <v>11.33822162814408</v>
       </c>
       <c r="F188">
-        <v>11.24488352806466</v>
+        <v>10.0490888938004</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4134,19 +4134,19 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>10.84258616926168</v>
+        <v>12.43614862517928</v>
       </c>
       <c r="C189">
-        <v>7.421448673111795</v>
+        <v>13.51231853118366</v>
       </c>
       <c r="D189">
-        <v>12.27362857646155</v>
+        <v>11.66828478204971</v>
       </c>
       <c r="E189">
-        <v>13.47195402806514</v>
+        <v>11.38349821649111</v>
       </c>
       <c r="F189">
-        <v>11.27052419273256</v>
+        <v>10.11046841408776</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4154,19 +4154,19 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>10.87325255928195</v>
+        <v>12.48860400776423</v>
       </c>
       <c r="C190">
-        <v>7.44478712053365</v>
+        <v>13.58784082741297</v>
       </c>
       <c r="D190">
-        <v>12.33334800342824</v>
+        <v>11.7390425145761</v>
       </c>
       <c r="E190">
-        <v>13.52704986657088</v>
+        <v>11.42856645527078</v>
       </c>
       <c r="F190">
-        <v>11.29577483690399</v>
+        <v>10.17183437243119</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4174,19 +4174,19 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>10.90376741784537</v>
+        <v>12.54083533220644</v>
       </c>
       <c r="C191">
-        <v>7.467899669090019</v>
+        <v>13.66321470446631</v>
       </c>
       <c r="D191">
-        <v>12.39287382890367</v>
+        <v>11.80978316533585</v>
       </c>
       <c r="E191">
-        <v>13.58178630228715</v>
+        <v>11.47342784400338</v>
       </c>
       <c r="F191">
-        <v>11.3206390988534</v>
+        <v>10.23318695832329</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4194,19 +4194,19 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>10.93413482653261</v>
+        <v>12.59284537560129</v>
       </c>
       <c r="C192">
-        <v>7.490788877186517</v>
+        <v>13.73844152772953</v>
       </c>
       <c r="D192">
-        <v>12.45220779441306</v>
+        <v>11.88050680688954</v>
       </c>
       <c r="E192">
-        <v>13.63616549964247</v>
+        <v>11.51808387613645</v>
       </c>
       <c r="F192">
-        <v>11.34512058344039</v>
+        <v>10.29452636079962</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4214,19 +4214,19 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>10.96435880232933</v>
+        <v>12.64463689066351</v>
       </c>
       <c r="C193">
-        <v>7.513457273205435</v>
+        <v>13.81352266093404</v>
       </c>
       <c r="D193">
-        <v>12.5113516390493</v>
+        <v>11.95121351249898</v>
       </c>
       <c r="E193">
-        <v>13.69018961414225</v>
+        <v>11.56253604050428</v>
       </c>
       <c r="F193">
-        <v>11.3692228633449</v>
+        <v>10.35585276846922</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4234,19 +4234,19 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>10.99444330255212</v>
+        <v>12.69621260728072</v>
       </c>
       <c r="C194">
-        <v>7.535907357328218</v>
+        <v>13.88845946250199</v>
       </c>
       <c r="D194">
-        <v>12.57030709499512</v>
+        <v>12.02190335611645</v>
       </c>
       <c r="E194">
-        <v>13.7438607908572</v>
+        <v>11.60678581817897</v>
       </c>
       <c r="F194">
-        <v>11.39294947627988</v>
+        <v>10.41716636950894</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4254,19 +4254,19 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>11.02439222497561</v>
+        <v>12.74757523175158</v>
       </c>
       <c r="C195">
-        <v>7.558141602564004</v>
+        <v>13.9632532878768</v>
       </c>
       <c r="D195">
-        <v>12.62907589077161</v>
+        <v>12.09257641221746</v>
       </c>
       <c r="E195">
-        <v>13.79718116434306</v>
+        <v>11.65083468304748</v>
       </c>
       <c r="F195">
-        <v>11.41630392725966</v>
+        <v>10.47846735164839</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4274,19 +4274,19 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>11.05420940709776</v>
+        <v>12.79872744665481</v>
       </c>
       <c r="C196">
-        <v>7.580162454052814</v>
+        <v>14.03790549220865</v>
       </c>
       <c r="D196">
-        <v>12.68765975370718</v>
+        <v>12.16323275589169</v>
       </c>
       <c r="E196">
-        <v>13.85015285957233</v>
+        <v>11.69468410387423</v>
       </c>
       <c r="F196">
-        <v>11.43928968806503</v>
+        <v>10.53975590219424</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4294,19 +4294,19 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>11.08389862924038</v>
+        <v>12.84967191197109</v>
       </c>
       <c r="C197">
-        <v>7.601972328831456</v>
+        <v>14.11241742329027</v>
       </c>
       <c r="D197">
-        <v>12.74606040269168</v>
+        <v>12.233872462808</v>
       </c>
       <c r="E197">
-        <v>13.90277799113009</v>
+        <v>11.73833554279821</v>
       </c>
       <c r="F197">
-        <v>11.46191019608567</v>
+        <v>10.60103220800934</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4314,19 +4314,19 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>11.11346361660569</v>
+        <v>12.90041126450795</v>
       </c>
       <c r="C198">
-        <v>7.623573616919771</v>
+        <v>14.18679042591799</v>
       </c>
       <c r="D198">
-        <v>12.80427955244861</v>
+        <v>12.30449560909208</v>
       </c>
       <c r="E198">
-        <v>13.95505866110782</v>
+        <v>11.78179045272256</v>
       </c>
       <c r="F198">
-        <v>11.48416885641446</v>
+        <v>10.66229645552354</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4334,19 +4334,19 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>11.14290803832291</v>
+        <v>12.9509481180445</v>
       </c>
       <c r="C199">
-        <v>7.644968681387086</v>
+        <v>14.26102584313275</v>
       </c>
       <c r="D199">
-        <v>12.86231891327858</v>
+        <v>12.37510227140619</v>
       </c>
       <c r="E199">
-        <v>14.00699696129893</v>
+        <v>11.82505028049557</v>
       </c>
       <c r="F199">
-        <v>11.50606903994254</v>
+        <v>10.72354883074014</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4354,19 +4354,19 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>11.17223550918809</v>
+        <v>13.00128506408456</v>
       </c>
       <c r="C200">
-        <v>7.666159857868612</v>
+        <v>14.33512501242189</v>
       </c>
       <c r="D200">
-        <v>12.92018019055374</v>
+        <v>12.44569252689174</v>
       </c>
       <c r="E200">
-        <v>14.05859497519498</v>
+        <v>11.86811646732431</v>
       </c>
       <c r="F200">
-        <v>11.5276140843492</v>
+        <v>10.78478951922206</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4374,19 +4374,19 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>11.20144959268114</v>
+        <v>13.05142467144762</v>
       </c>
       <c r="C201">
-        <v>7.687149455420583</v>
+        <v>14.40908926687654</v>
       </c>
       <c r="D201">
-        <v>12.97786508246539</v>
+        <v>12.51626645308856</v>
       </c>
       <c r="E201">
-        <v>14.10985477117336</v>
+        <v>11.91099044448161</v>
       </c>
       <c r="F201">
-        <v>11.54880729471167</v>
+        <v>10.84601870610755</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4394,19 +4394,19 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>11.23055380004669</v>
+        <v>13.1013694865441</v>
       </c>
       <c r="C202">
-        <v>7.70793975694711</v>
+        <v>14.48291993628316</v>
       </c>
       <c r="D202">
-        <v>13.03537528178375</v>
+        <v>12.58682412800458</v>
       </c>
       <c r="E202">
-        <v>14.16077840705043</v>
+        <v>11.9536736364039</v>
       </c>
       <c r="F202">
-        <v>11.56965194221448</v>
+        <v>10.90723657610599</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4414,19 +4414,19 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>11.25955159111241</v>
+        <v>13.15112203400228</v>
       </c>
       <c r="C203">
-        <v>7.72853301851864</v>
+        <v>14.55661834631095</v>
       </c>
       <c r="D203">
-        <v>13.09271247691365</v>
+        <v>12.65736563003657</v>
       </c>
       <c r="E203">
-        <v>14.21136793193768</v>
+        <v>11.99616746133551</v>
       </c>
       <c r="F203">
-        <v>11.59015126548565</v>
+        <v>10.96844331349511</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4434,19 +4434,19 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>11.28844637805939</v>
+        <v>13.20068481627448</v>
       </c>
       <c r="C204">
-        <v>7.748931470226499</v>
+        <v>14.6301858174369</v>
       </c>
       <c r="D204">
-        <v>13.14987834813636</v>
+        <v>12.72789103792903</v>
       </c>
       <c r="E204">
-        <v>14.26162538071083</v>
+        <v>12.03847332814368</v>
       </c>
       <c r="F204">
-        <v>11.61030847034427</v>
+        <v>11.02963910213522</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4454,19 +4454,19 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>11.31724152439719</v>
+        <v>13.25006031402182</v>
       </c>
       <c r="C205">
-        <v>7.769137317032502</v>
+        <v>14.70362366607446</v>
       </c>
       <c r="D205">
-        <v>13.20687456981735</v>
+        <v>12.79840043083389</v>
       </c>
       <c r="E205">
-        <v>14.31155277689939</v>
+        <v>12.08059263826914</v>
       </c>
       <c r="F205">
-        <v>11.63012672943981</v>
+        <v>11.09082412545645</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4474,19 +4474,19 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>11.34594034523117</v>
+        <v>13.29925098669511</v>
       </c>
       <c r="C206">
-        <v>7.789152737560209</v>
+        <v>14.77693320448337</v>
       </c>
       <c r="D206">
-        <v>13.26370281056169</v>
+        <v>12.86889388821005</v>
       </c>
       <c r="E206">
-        <v>14.36115213317186</v>
+        <v>12.12252678567178</v>
       </c>
       <c r="F206">
-        <v>11.64960918352177</v>
+        <v>11.1519985664699</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4494,19 +4494,19 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>11.37454611134832</v>
+        <v>13.3482592721164</v>
       </c>
       <c r="C207">
-        <v>7.808979885269267</v>
+        <v>14.85011573968927</v>
       </c>
       <c r="D207">
-        <v>13.32036473250105</v>
+        <v>12.93937148982092</v>
       </c>
       <c r="E207">
-        <v>14.41042545044999</v>
+        <v>12.16427715590132</v>
       </c>
       <c r="F207">
-        <v>11.6687589403658</v>
+        <v>11.21316260776996</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4514,19 +4514,19 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>11.4030620482416</v>
+        <v>13.39708758696903</v>
       </c>
       <c r="C208">
-        <v>7.828620888985328</v>
+        <v>14.92317257418466</v>
       </c>
       <c r="D208">
-        <v>13.37686198997742</v>
+        <v>13.00983331578285</v>
       </c>
       <c r="E208">
-        <v>14.45937471689744</v>
+        <v>12.20584512630972</v>
       </c>
       <c r="F208">
-        <v>11.68757907565161</v>
+        <v>11.27431643152988</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4534,19 +4534,19 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>11.43149133512637</v>
+        <v>13.44573832725918</v>
       </c>
       <c r="C209">
-        <v>7.848077852425725</v>
+        <v>14.99610500654193</v>
       </c>
       <c r="D209">
-        <v>13.43319623080955</v>
+        <v>13.08027944644543</v>
       </c>
       <c r="E209">
-        <v>14.50800190907203</v>
+        <v>12.24723206671074</v>
       </c>
       <c r="F209">
-        <v>11.70607263336131</v>
+        <v>11.33546021951073</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4554,19 +4554,19 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>11.45983711063102</v>
+        <v>13.49421386800108</v>
       </c>
       <c r="C210">
-        <v>7.867352854668464</v>
+        <v>15.06891432963177</v>
       </c>
       <c r="D210">
-        <v>13.48936909736409</v>
+        <v>13.15070996242881</v>
       </c>
       <c r="E210">
-        <v>14.55630899181883</v>
+        <v>12.28843933885353</v>
       </c>
       <c r="F210">
-        <v>11.72424262515301</v>
+        <v>11.39659415305984</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4574,19 +4574,19 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>11.48810247081016</v>
+        <v>13.54251656372417</v>
       </c>
       <c r="C211">
-        <v>7.886447950537088</v>
+        <v>15.14160183170158</v>
       </c>
       <c r="D211">
-        <v>13.54538222313593</v>
+        <v>13.2211249446448</v>
       </c>
       <c r="E211">
-        <v>14.60429791730001</v>
+        <v>12.32946829564069</v>
       </c>
       <c r="F211">
-        <v>11.74209203133509</v>
+        <v>11.45771841311305</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4594,19 +4594,19 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>11.51629046909222</v>
+        <v>13.5906487487764</v>
       </c>
       <c r="C212">
-        <v>7.905365170764079</v>
+        <v>15.21416879689619</v>
       </c>
       <c r="D212">
-        <v>13.60123723490621</v>
+        <v>13.29152447419074</v>
       </c>
       <c r="E212">
-        <v>14.65197062555815</v>
+        <v>12.37032028223527</v>
       </c>
       <c r="F212">
-        <v>11.75962380077808</v>
+        <v>11.51883318020011</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4614,19 +4614,19 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>11.54440411996448</v>
+        <v>13.63861273723219</v>
       </c>
       <c r="C213">
-        <v>7.924106522204076</v>
+        <v>15.28661650396944</v>
       </c>
       <c r="D213">
-        <v>13.65693575290895</v>
+        <v>13.36190863239416</v>
       </c>
       <c r="E213">
-        <v>14.69932904583988</v>
+        <v>12.41099663629042</v>
       </c>
       <c r="F213">
-        <v>11.77684085089526</v>
+        <v>11.57993863444254</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4634,19 +4634,19 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>11.57244639878316</v>
+        <v>13.68641082328671</v>
       </c>
       <c r="C214">
-        <v>7.942673988155053</v>
+        <v>15.35894622670284</v>
       </c>
       <c r="D214">
-        <v>13.71247938999282</v>
+        <v>13.43227750081811</v>
       </c>
       <c r="E214">
-        <v>14.74637509379125</v>
+        <v>12.45149868626159</v>
       </c>
       <c r="F214">
-        <v>11.79374606846947</v>
+        <v>11.64103495555925</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -4654,19 +4654,19 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>11.600420241348</v>
+        <v>13.73404528150157</v>
       </c>
       <c r="C215">
-        <v>7.961069528634988</v>
+        <v>15.43115923434222</v>
       </c>
       <c r="D215">
-        <v>13.76786975095693</v>
+        <v>13.50263116117497</v>
       </c>
       <c r="E215">
-        <v>14.79311067316377</v>
+        <v>12.49182775267958</v>
       </c>
       <c r="F215">
-        <v>11.8103423091779</v>
+        <v>11.70212232286854</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4674,19 +4674,19 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>11.62832854630435</v>
+        <v>13.78151836685696</v>
       </c>
       <c r="C216">
-        <v>7.97929508046772</v>
+        <v>15.50325679128942</v>
       </c>
       <c r="D216">
-        <v>13.82310843344628</v>
+        <v>13.5729696953679</v>
       </c>
       <c r="E216">
-        <v>14.83953767625774</v>
+        <v>12.53198514821956</v>
       </c>
       <c r="F216">
-        <v>11.8266323982467</v>
+        <v>11.76320091528847</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -4694,19 +4694,19 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>11.65617417635767</v>
+        <v>13.8288323150616</v>
       </c>
       <c r="C217">
-        <v>7.997352557662293</v>
+        <v>15.57524015668</v>
       </c>
       <c r="D217">
-        <v>13.87819702850659</v>
+        <v>13.64329318548593</v>
       </c>
       <c r="E217">
-        <v>14.88565798313527</v>
+        <v>12.57197217684554</v>
       </c>
       <c r="F217">
-        <v>11.84261913073781</v>
+        <v>11.82427091134205</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4714,19 +4714,19 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>11.68395995758909</v>
+        <v>13.87598934278392</v>
       </c>
       <c r="C218">
-        <v>8.015243851651981</v>
+        <v>15.64711058493927</v>
       </c>
       <c r="D218">
-        <v>13.93313711848957</v>
+        <v>13.71360171373601</v>
       </c>
       <c r="E218">
-        <v>14.93147346115714</v>
+        <v>12.61179013434946</v>
       </c>
       <c r="F218">
-        <v>11.85830527141235</v>
+        <v>11.88533248915697</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -4734,19 +4734,19 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>11.71168868083459</v>
+        <v>13.92299164776817</v>
       </c>
       <c r="C219">
-        <v>8.032970831488628</v>
+        <v>15.71886932586665</v>
       </c>
       <c r="D219">
-        <v>13.98793027841424</v>
+        <v>13.783895362481</v>
       </c>
       <c r="E219">
-        <v>14.97698596581522</v>
+        <v>12.65144030887082</v>
       </c>
       <c r="F219">
-        <v>11.87369355535194</v>
+        <v>11.94638582646889</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -4754,19 +4754,19 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>11.73936310379906</v>
+        <v>13.96984140910549</v>
       </c>
       <c r="C220">
-        <v>8.050535344127233</v>
+        <v>15.79051762390675</v>
       </c>
       <c r="D220">
-        <v>14.042578076176</v>
+        <v>13.8541742142247</v>
       </c>
       <c r="E220">
-        <v>15.02219734063456</v>
+        <v>12.69092397989398</v>
       </c>
       <c r="F220">
-        <v>11.88878668802907</v>
+        <v>12.00743110062363</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4774,19 +4774,19 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>11.76698595022503</v>
+        <v>14.01654078744827</v>
       </c>
       <c r="C221">
-        <v>8.067939214709382</v>
+        <v>15.8620567187023</v>
       </c>
       <c r="D221">
-        <v>14.09708207178499</v>
+        <v>13.92443835156183</v>
       </c>
       <c r="E221">
-        <v>15.06710941667949</v>
+        <v>12.73024241866882</v>
       </c>
       <c r="F221">
-        <v>11.90358734548764</v>
+        <v>12.06846848859345</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -4794,19 +4794,19 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>11.79455991050723</v>
+        <v>14.06309192517589</v>
       </c>
       <c r="C222">
-        <v>8.085184246735357</v>
+        <v>15.9334878452625</v>
       </c>
       <c r="D222">
-        <v>14.15144381718039</v>
+        <v>13.9946878572121</v>
       </c>
       <c r="E222">
-        <v>15.11172401293562</v>
+        <v>12.76939688847261</v>
       </c>
       <c r="F222">
-        <v>11.91809817502656</v>
+        <v>12.12949816695439</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -4814,19 +4814,19 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>11.8220876445803</v>
+        <v>14.10949694662937</v>
       </c>
       <c r="C223">
-        <v>8.102272222361066</v>
+        <v>16.00481223334339</v>
       </c>
       <c r="D223">
-        <v>14.20566485676443</v>
+        <v>14.0649228139955</v>
       </c>
       <c r="E223">
-        <v>15.15604293713487</v>
+        <v>12.80838864442483</v>
       </c>
       <c r="F223">
-        <v>11.93232179474065</v>
+        <v>12.1905203119034</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -4834,19 +4834,19 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>11.84957178088505</v>
+        <v>14.15575795830573</v>
       </c>
       <c r="C224">
-        <v>8.119204902588136</v>
+        <v>16.07603110785659</v>
       </c>
       <c r="D224">
-        <v>14.25974672778467</v>
+        <v>14.1351433047999</v>
       </c>
       <c r="E224">
-        <v>15.20006798408188</v>
+        <v>12.84721893330414</v>
       </c>
       <c r="F224">
-        <v>11.9462607941714</v>
+        <v>12.25153509925917</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -4854,19 +4854,19 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>11.87701491644725</v>
+        <v>14.20187704907943</v>
       </c>
       <c r="C225">
-        <v>8.135984027567442</v>
+        <v>16.14714568905613</v>
       </c>
       <c r="D225">
-        <v>14.31369095887353</v>
+        <v>14.20534941261058</v>
       </c>
       <c r="E225">
-        <v>15.24380093679858</v>
+        <v>12.88588899392271</v>
       </c>
       <c r="F225">
-        <v>11.95991773444661</v>
+        <v>12.3125427044558</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -4874,19 +4874,19 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>11.90441962020269</v>
+        <v>14.24785629038927</v>
       </c>
       <c r="C226">
-        <v>8.15261131683952</v>
+        <v>16.21815719212042</v>
       </c>
       <c r="D226">
-        <v>14.36749907105372</v>
+        <v>14.27554122047646</v>
       </c>
       <c r="E226">
-        <v>15.28724356652259</v>
+        <v>12.92440005725192</v>
       </c>
       <c r="F226">
-        <v>11.97329514929391</v>
+        <v>12.37354330255969</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -4894,19 +4894,19 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>11.93178843192101</v>
+        <v>14.29369773642161</v>
       </c>
       <c r="C227">
-        <v>8.169088469502395</v>
+        <v>16.28906682731858</v>
       </c>
       <c r="D227">
-        <v>14.42117257801966</v>
+        <v>14.34571881149461</v>
       </c>
       <c r="E227">
-        <v>15.33039763246044</v>
+        <v>12.96275334583841</v>
       </c>
       <c r="F227">
-        <v>11.98639554372235</v>
+        <v>12.43453706826288</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -4914,19 +4914,19 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>11.95912386183613</v>
+        <v>14.33940342437757</v>
       </c>
       <c r="C228">
-        <v>8.185417164479837</v>
+        <v>16.35987580020492</v>
       </c>
       <c r="D228">
-        <v>14.4747129853627</v>
+        <v>14.41588226883503</v>
       </c>
       <c r="E228">
-        <v>15.37326488176729</v>
+        <v>13.00095007431729</v>
       </c>
       <c r="F228">
-        <v>11.99922139535785</v>
+        <v>12.49552417588652</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -4934,19 +4934,19 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>11.98642839428025</v>
+        <v>14.38497537461456</v>
       </c>
       <c r="C229">
-        <v>8.201599060851729</v>
+        <v>16.43058531151496</v>
       </c>
       <c r="D229">
-        <v>14.52812179065655</v>
+        <v>14.48603167569837</v>
       </c>
       <c r="E229">
-        <v>15.41584704990221</v>
+        <v>13.0389914495708</v>
       </c>
       <c r="F229">
-        <v>12.01177515440607</v>
+        <v>12.55650479938686</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -4954,19 +4954,19 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>12.01370448650175</v>
+        <v>14.43041559083085</v>
       </c>
       <c r="C230">
-        <v>8.217635797964785</v>
+        <v>16.50119655701408</v>
       </c>
       <c r="D230">
-        <v>14.58140048382864</v>
+        <v>14.55616711531654</v>
       </c>
       <c r="E230">
-        <v>15.45814586076553</v>
+        <v>13.07687867024939</v>
       </c>
       <c r="F230">
-        <v>12.02405924545756</v>
+        <v>12.61747911235152</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -4974,19 +4974,19 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>12.04095456847254</v>
+        <v>14.4757260603539</v>
       </c>
       <c r="C231">
-        <v>8.233528995621112</v>
+        <v>16.57171072775882</v>
       </c>
       <c r="D231">
-        <v>14.63455054738812</v>
+        <v>14.62628867099303</v>
       </c>
       <c r="E231">
-        <v>15.50016302608554</v>
+        <v>13.11461292714393</v>
       </c>
       <c r="F231">
-        <v>12.03607606472164</v>
+        <v>12.67844728800564</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -4994,19 +4994,19 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>12.06818104572369</v>
+        <v>14.52090875425151</v>
       </c>
       <c r="C232">
-        <v>8.24928025453984</v>
+        <v>16.64212901015822</v>
       </c>
       <c r="D232">
-        <v>14.68757345544859</v>
+        <v>14.69639642600731</v>
       </c>
       <c r="E232">
-        <v>15.54190024599503</v>
+        <v>13.15219540339129</v>
       </c>
       <c r="F232">
-        <v>12.04782798231751</v>
+        <v>12.73940949921367</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5014,19 +5014,19 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>12.09538629895008</v>
+        <v>14.56596562752372</v>
       </c>
       <c r="C233">
-        <v>8.264891156408353</v>
+        <v>16.71245258567625</v>
       </c>
       <c r="D233">
-        <v>14.74047067445682</v>
+        <v>14.76649046365783</v>
       </c>
       <c r="E233">
-        <v>15.58335920920239</v>
+        <v>13.18962727411559</v>
       </c>
       <c r="F233">
-        <v>12.05931734210783</v>
+        <v>12.80036591848188</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5034,19 +5034,19 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>12.12257268380007</v>
+        <v>14.61089861939324</v>
       </c>
       <c r="C234">
-        <v>8.280363264001796</v>
+        <v>16.78268263110196</v>
       </c>
       <c r="D234">
-        <v>14.79324366344335</v>
+        <v>14.83657086724184</v>
       </c>
       <c r="E234">
-        <v>15.62454159252148</v>
+        <v>13.22690970664135</v>
       </c>
       <c r="F234">
-        <v>12.07054646259645</v>
+        <v>12.86131671796008</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5054,19 +5054,19 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>12.14974253266828</v>
+        <v>14.65570965336149</v>
       </c>
       <c r="C235">
-        <v>8.295698121728561</v>
+        <v>16.85282031866225</v>
       </c>
       <c r="D235">
-        <v>14.84589387337145</v>
+        <v>14.90663772012192</v>
       </c>
       <c r="E235">
-        <v>15.66544906126423</v>
+        <v>13.26404386064251</v>
       </c>
       <c r="F235">
-        <v>12.0815176359447</v>
+        <v>12.9222620694444</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5074,19 +5074,19 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>12.17689815535903</v>
+        <v>14.70040063742947</v>
       </c>
       <c r="C236">
-        <v>8.310897255648868</v>
+        <v>16.92286681574302</v>
       </c>
       <c r="D236">
-        <v>14.89842274736935</v>
+        <v>14.97669110562958</v>
       </c>
       <c r="E236">
-        <v>15.70608326943238</v>
+        <v>13.30103088809032</v>
       </c>
       <c r="F236">
-        <v>12.09223312899507</v>
+        <v>12.98320214437955</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5094,19 +5094,19 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>12.20404183864229</v>
+        <v>14.74497346446852</v>
       </c>
       <c r="C237">
-        <v>8.325962173566939</v>
+        <v>16.99282328511435</v>
       </c>
       <c r="D237">
-        <v>14.95083172094828</v>
+        <v>15.04673110702908</v>
       </c>
       <c r="E237">
-        <v>15.74644585948564</v>
+        <v>13.33787193321074</v>
       </c>
       <c r="F237">
-        <v>12.10269518343898</v>
+        <v>13.04413711387806</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5114,19 +5114,19 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>12.23117584732231</v>
+        <v>14.78943001226695</v>
       </c>
       <c r="C238">
-        <v>8.340894365561994</v>
+        <v>17.06269088501504</v>
       </c>
       <c r="D238">
-        <v>15.00312222212567</v>
+        <v>15.11675780758234</v>
       </c>
       <c r="E238">
-        <v>15.7865384624248</v>
+        <v>13.37456813268052</v>
       </c>
       <c r="F238">
-        <v>12.11290601596925</v>
+        <v>13.10506714869071</v>
       </c>
     </row>
   </sheetData>
